--- a/PublicTools/econfigs/15-magicLevelup.xlsx
+++ b/PublicTools/econfigs/15-magicLevelup.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Family\叶烁\工作\xxpniu\MultiplayerGame\PublicTools\econfigs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F3377-E0BF-4438-865B-80513E39DF48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAABF1CD-42DC-2149-A90E-52FB65B9BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="1" r:id="rId1"/>
     <sheet name="MagicLevelUpData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgJckJzNW/yjKpV1yircuoNE6wVMA=="/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>MagicLevelUpData</t>
   </si>
@@ -266,6 +277,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -320,28 +332,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -561,13 +575,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="26" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -28590,25 +28604,25 @@
   <dimension ref="A1:AC347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="5" customWidth="1"/>
-    <col min="7" max="9" width="11.25" style="5" customWidth="1"/>
-    <col min="10" max="12" width="9.875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="29.75" style="5" customWidth="1"/>
-    <col min="14" max="29" width="7.75" style="5" customWidth="1"/>
-    <col min="30" max="16384" width="12.625" style="5"/>
+    <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="5" customWidth="1"/>
+    <col min="7" max="9" width="11.1640625" style="5" customWidth="1"/>
+    <col min="10" max="12" width="9.83203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" style="5" customWidth="1"/>
+    <col min="14" max="29" width="7.6640625" style="5" customWidth="1"/>
+    <col min="30" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1">
@@ -28783,13 +28797,13 @@
       <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>3</v>
       </c>
       <c r="D4" s="4">
@@ -28804,7 +28818,7 @@
       <c r="G4" s="4">
         <v>20</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>2000</v>
       </c>
       <c r="I4" s="3"/>
@@ -28836,7 +28850,7 @@
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>3002</v>
       </c>
       <c r="C5" s="4">
@@ -28854,7 +28868,7 @@
       <c r="G5" s="4">
         <v>22</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>4000</v>
       </c>
       <c r="I5" s="3"/>
@@ -28884,10 +28898,10 @@
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>3003</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
       <c r="D6" s="4">
@@ -28902,7 +28916,7 @@
       <c r="G6" s="4">
         <v>24</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>6000</v>
       </c>
       <c r="I6" s="3"/>
@@ -28932,7 +28946,7 @@
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>3004</v>
       </c>
       <c r="C7" s="4">
@@ -28950,7 +28964,7 @@
       <c r="G7" s="4">
         <v>26</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>8000</v>
       </c>
       <c r="I7" s="3"/>
@@ -28980,10 +28994,10 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>3005</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
       <c r="D8" s="4">
@@ -28998,7 +29012,7 @@
       <c r="G8" s="4">
         <v>28</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>10000</v>
       </c>
       <c r="I8" s="3"/>
@@ -29028,7 +29042,7 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>3006</v>
       </c>
       <c r="C9" s="4">
@@ -29046,7 +29060,7 @@
       <c r="G9" s="4">
         <v>30</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>12000</v>
       </c>
       <c r="I9" s="3"/>
@@ -29076,10 +29090,10 @@
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>3007</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>3</v>
       </c>
       <c r="D10" s="4">
@@ -29094,7 +29108,7 @@
       <c r="G10" s="4">
         <v>32</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>14000</v>
       </c>
       <c r="I10" s="3"/>
@@ -29124,7 +29138,7 @@
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>3008</v>
       </c>
       <c r="C11" s="4">
@@ -29142,7 +29156,7 @@
       <c r="G11" s="4">
         <v>34</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>16000</v>
       </c>
       <c r="I11" s="3"/>
@@ -29172,10 +29186,10 @@
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>3009</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>3</v>
       </c>
       <c r="D12" s="4">
@@ -29190,7 +29204,7 @@
       <c r="G12" s="4">
         <v>36</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>18000</v>
       </c>
       <c r="I12" s="3"/>
@@ -29220,7 +29234,7 @@
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>3010</v>
       </c>
       <c r="C13" s="4">
@@ -29238,7 +29252,7 @@
       <c r="G13" s="4">
         <v>38</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>20000</v>
       </c>
       <c r="I13" s="3"/>
@@ -29268,10 +29282,10 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>3011</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>3</v>
       </c>
       <c r="D14" s="4">
@@ -29286,7 +29300,7 @@
       <c r="G14" s="4">
         <v>40</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>22000</v>
       </c>
       <c r="I14" s="3"/>
@@ -29316,7 +29330,7 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>3012</v>
       </c>
       <c r="C15" s="4">
@@ -29334,7 +29348,7 @@
       <c r="G15" s="4">
         <v>42</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>24000</v>
       </c>
       <c r="I15" s="3"/>
@@ -29364,10 +29378,10 @@
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>3013</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>3</v>
       </c>
       <c r="D16" s="4">
@@ -29382,7 +29396,7 @@
       <c r="G16" s="4">
         <v>44</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>26000</v>
       </c>
       <c r="I16" s="3"/>
@@ -29412,7 +29426,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>3014</v>
       </c>
       <c r="C17" s="4">
@@ -29430,7 +29444,7 @@
       <c r="G17" s="4">
         <v>46</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>28000</v>
       </c>
       <c r="I17" s="3"/>
@@ -29460,10 +29474,10 @@
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>3015</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>3</v>
       </c>
       <c r="D18" s="4">
@@ -29478,7 +29492,7 @@
       <c r="G18" s="4">
         <v>48</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>30000</v>
       </c>
       <c r="I18" s="3"/>
@@ -29510,7 +29524,7 @@
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>4001</v>
       </c>
       <c r="C19" s="4">
@@ -29528,8 +29542,8 @@
       <c r="G19" s="4">
         <v>30</v>
       </c>
-      <c r="H19" s="15">
-        <v>1000</v>
+      <c r="H19" s="14">
+        <v>3000</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -29537,7 +29551,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="4" t="str">
         <f t="shared" ref="M19:M33" si="1">"持续时间"&amp;H19/1000&amp;"秒"</f>
-        <v>持续时间1秒</v>
+        <v>持续时间3秒</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -29560,7 +29574,7 @@
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>4002</v>
       </c>
       <c r="C20" s="4">
@@ -29578,8 +29592,8 @@
       <c r="G20" s="4">
         <v>32</v>
       </c>
-      <c r="H20" s="15">
-        <v>1200</v>
+      <c r="H20" s="14">
+        <v>3400</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -29587,7 +29601,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间1.2秒</v>
+        <v>持续时间3.4秒</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -29608,7 +29622,7 @@
     </row>
     <row r="21" spans="1:29" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>4003</v>
       </c>
       <c r="C21" s="4">
@@ -29626,8 +29640,8 @@
       <c r="G21" s="4">
         <v>34</v>
       </c>
-      <c r="H21" s="15">
-        <v>1400</v>
+      <c r="H21" s="14">
+        <v>3800</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -29635,7 +29649,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间1.4秒</v>
+        <v>持续时间3.8秒</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -29656,7 +29670,7 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>4004</v>
       </c>
       <c r="C22" s="4">
@@ -29674,8 +29688,8 @@
       <c r="G22" s="4">
         <v>36</v>
       </c>
-      <c r="H22" s="15">
-        <v>1600</v>
+      <c r="H22" s="14">
+        <v>4200</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -29683,7 +29697,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间1.6秒</v>
+        <v>持续时间4.2秒</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -29704,7 +29718,7 @@
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>4005</v>
       </c>
       <c r="C23" s="4">
@@ -29722,8 +29736,8 @@
       <c r="G23" s="4">
         <v>38</v>
       </c>
-      <c r="H23" s="15">
-        <v>1800</v>
+      <c r="H23" s="14">
+        <v>4600</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -29731,7 +29745,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间1.8秒</v>
+        <v>持续时间4.6秒</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -29752,7 +29766,7 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>4006</v>
       </c>
       <c r="C24" s="4">
@@ -29770,8 +29784,8 @@
       <c r="G24" s="4">
         <v>40</v>
       </c>
-      <c r="H24" s="15">
-        <v>2000</v>
+      <c r="H24" s="14">
+        <v>5000</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -29779,7 +29793,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间2秒</v>
+        <v>持续时间5秒</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -29800,7 +29814,7 @@
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>4007</v>
       </c>
       <c r="C25" s="4">
@@ -29818,8 +29832,8 @@
       <c r="G25" s="4">
         <v>42</v>
       </c>
-      <c r="H25" s="15">
-        <v>2200</v>
+      <c r="H25" s="14">
+        <v>5400</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -29827,7 +29841,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间2.2秒</v>
+        <v>持续时间5.4秒</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -29848,7 +29862,7 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>4008</v>
       </c>
       <c r="C26" s="4">
@@ -29866,8 +29880,8 @@
       <c r="G26" s="4">
         <v>44</v>
       </c>
-      <c r="H26" s="15">
-        <v>2400</v>
+      <c r="H26" s="14">
+        <v>5800</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -29875,7 +29889,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间2.4秒</v>
+        <v>持续时间5.8秒</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -29896,7 +29910,7 @@
     </row>
     <row r="27" spans="1:29" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>4009</v>
       </c>
       <c r="C27" s="4">
@@ -29914,8 +29928,8 @@
       <c r="G27" s="4">
         <v>46</v>
       </c>
-      <c r="H27" s="15">
-        <v>2600</v>
+      <c r="H27" s="14">
+        <v>6200</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -29923,7 +29937,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间2.6秒</v>
+        <v>持续时间6.2秒</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -29944,7 +29958,7 @@
     </row>
     <row r="28" spans="1:29" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>4010</v>
       </c>
       <c r="C28" s="4">
@@ -29962,8 +29976,8 @@
       <c r="G28" s="4">
         <v>48</v>
       </c>
-      <c r="H28" s="15">
-        <v>2800</v>
+      <c r="H28" s="14">
+        <v>6600</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -29971,7 +29985,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间2.8秒</v>
+        <v>持续时间6.6秒</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -29992,7 +30006,7 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>4011</v>
       </c>
       <c r="C29" s="4">
@@ -30010,8 +30024,8 @@
       <c r="G29" s="4">
         <v>50</v>
       </c>
-      <c r="H29" s="15">
-        <v>3000</v>
+      <c r="H29" s="14">
+        <v>7000</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -30019,7 +30033,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间3秒</v>
+        <v>持续时间7秒</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -30040,7 +30054,7 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>4012</v>
       </c>
       <c r="C30" s="4">
@@ -30058,8 +30072,8 @@
       <c r="G30" s="4">
         <v>52</v>
       </c>
-      <c r="H30" s="15">
-        <v>3200</v>
+      <c r="H30" s="14">
+        <v>7400</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -30067,7 +30081,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间3.2秒</v>
+        <v>持续时间7.4秒</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -30088,7 +30102,7 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>4013</v>
       </c>
       <c r="C31" s="4">
@@ -30106,8 +30120,8 @@
       <c r="G31" s="4">
         <v>54</v>
       </c>
-      <c r="H31" s="15">
-        <v>3400</v>
+      <c r="H31" s="14">
+        <v>7800</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -30115,7 +30129,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间3.4秒</v>
+        <v>持续时间7.8秒</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -30136,7 +30150,7 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>4014</v>
       </c>
       <c r="C32" s="4">
@@ -30154,8 +30168,8 @@
       <c r="G32" s="4">
         <v>56</v>
       </c>
-      <c r="H32" s="15">
-        <v>3600</v>
+      <c r="H32" s="14">
+        <v>8200</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -30163,7 +30177,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间3.6秒</v>
+        <v>持续时间8.2秒</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -30184,7 +30198,7 @@
     </row>
     <row r="33" spans="1:29" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>4015</v>
       </c>
       <c r="C33" s="4">
@@ -30202,8 +30216,8 @@
       <c r="G33" s="4">
         <v>58</v>
       </c>
-      <c r="H33" s="15">
-        <v>3800</v>
+      <c r="H33" s="14">
+        <v>8600</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -30211,7 +30225,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>持续时间3.8秒</v>
+        <v>持续时间8.6秒</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -30234,7 +30248,7 @@
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>5001</v>
       </c>
       <c r="C34" s="4">
@@ -30252,7 +30266,7 @@
       <c r="G34" s="4">
         <v>40</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="15">
         <v>1</v>
       </c>
       <c r="I34" s="4">
@@ -30286,7 +30300,7 @@
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>5002</v>
       </c>
       <c r="C35" s="4">
@@ -30304,8 +30318,8 @@
       <c r="G35" s="4">
         <v>45</v>
       </c>
-      <c r="H35" s="4">
-        <v>5</v>
+      <c r="H35" s="15">
+        <v>3</v>
       </c>
       <c r="I35" s="4">
         <v>98</v>
@@ -30315,7 +30329,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物5级</v>
+        <v>召唤物3级</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -30338,7 +30352,7 @@
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>5003</v>
       </c>
       <c r="C36" s="4">
@@ -30356,8 +30370,8 @@
       <c r="G36" s="4">
         <v>50</v>
       </c>
-      <c r="H36" s="4">
-        <v>9</v>
+      <c r="H36" s="15">
+        <v>7</v>
       </c>
       <c r="I36" s="4">
         <v>98</v>
@@ -30367,7 +30381,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物9级</v>
+        <v>召唤物7级</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -30388,7 +30402,7 @@
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>5004</v>
       </c>
       <c r="C37" s="4">
@@ -30406,8 +30420,8 @@
       <c r="G37" s="4">
         <v>55</v>
       </c>
-      <c r="H37" s="4">
-        <v>13</v>
+      <c r="H37" s="15">
+        <v>9</v>
       </c>
       <c r="I37" s="4">
         <v>98</v>
@@ -30417,7 +30431,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物13级</v>
+        <v>召唤物9级</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -30438,7 +30452,7 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>5005</v>
       </c>
       <c r="C38" s="4">
@@ -30456,8 +30470,8 @@
       <c r="G38" s="4">
         <v>60</v>
       </c>
-      <c r="H38" s="4">
-        <v>17</v>
+      <c r="H38" s="15">
+        <v>12</v>
       </c>
       <c r="I38" s="4">
         <v>98</v>
@@ -30467,7 +30481,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物17级</v>
+        <v>召唤物12级</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -30488,7 +30502,7 @@
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>5006</v>
       </c>
       <c r="C39" s="4">
@@ -30506,8 +30520,8 @@
       <c r="G39" s="4">
         <v>65</v>
       </c>
-      <c r="H39" s="4">
-        <v>21</v>
+      <c r="H39" s="15">
+        <v>15</v>
       </c>
       <c r="I39" s="4">
         <v>98</v>
@@ -30517,7 +30531,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物21级</v>
+        <v>召唤物15级</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -30538,7 +30552,7 @@
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>5007</v>
       </c>
       <c r="C40" s="4">
@@ -30556,8 +30570,8 @@
       <c r="G40" s="4">
         <v>70</v>
       </c>
-      <c r="H40" s="4">
-        <v>25</v>
+      <c r="H40" s="15">
+        <v>18</v>
       </c>
       <c r="I40" s="4">
         <v>98</v>
@@ -30567,7 +30581,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物25级</v>
+        <v>召唤物18级</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -30588,7 +30602,7 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>5008</v>
       </c>
       <c r="C41" s="4">
@@ -30606,8 +30620,8 @@
       <c r="G41" s="4">
         <v>75</v>
       </c>
-      <c r="H41" s="4">
-        <v>29</v>
+      <c r="H41" s="15">
+        <v>21</v>
       </c>
       <c r="I41" s="4">
         <v>98</v>
@@ -30617,7 +30631,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物29级</v>
+        <v>召唤物21级</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -30638,7 +30652,7 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>5009</v>
       </c>
       <c r="C42" s="4">
@@ -30656,8 +30670,8 @@
       <c r="G42" s="4">
         <v>80</v>
       </c>
-      <c r="H42" s="4">
-        <v>33</v>
+      <c r="H42" s="15">
+        <v>24</v>
       </c>
       <c r="I42" s="4">
         <v>98</v>
@@ -30667,7 +30681,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物33级</v>
+        <v>召唤物24级</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -30688,7 +30702,7 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>5010</v>
       </c>
       <c r="C43" s="4">
@@ -30706,8 +30720,8 @@
       <c r="G43" s="4">
         <v>85</v>
       </c>
-      <c r="H43" s="4">
-        <v>37</v>
+      <c r="H43" s="15">
+        <v>27</v>
       </c>
       <c r="I43" s="4">
         <v>98</v>
@@ -30717,7 +30731,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物37级</v>
+        <v>召唤物27级</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -30738,7 +30752,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>5011</v>
       </c>
       <c r="C44" s="4">
@@ -30756,8 +30770,8 @@
       <c r="G44" s="4">
         <v>90</v>
       </c>
-      <c r="H44" s="4">
-        <v>41</v>
+      <c r="H44" s="15">
+        <v>30</v>
       </c>
       <c r="I44" s="4">
         <v>98</v>
@@ -30767,7 +30781,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物41级</v>
+        <v>召唤物30级</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -30788,7 +30802,7 @@
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>5012</v>
       </c>
       <c r="C45" s="4">
@@ -30806,8 +30820,8 @@
       <c r="G45" s="4">
         <v>95</v>
       </c>
-      <c r="H45" s="4">
-        <v>45</v>
+      <c r="H45" s="15">
+        <v>33</v>
       </c>
       <c r="I45" s="4">
         <v>98</v>
@@ -30817,7 +30831,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物45级</v>
+        <v>召唤物33级</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -30838,7 +30852,7 @@
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>5013</v>
       </c>
       <c r="C46" s="4">
@@ -30856,8 +30870,8 @@
       <c r="G46" s="4">
         <v>100</v>
       </c>
-      <c r="H46" s="4">
-        <v>49</v>
+      <c r="H46" s="15">
+        <v>36</v>
       </c>
       <c r="I46" s="4">
         <v>98</v>
@@ -30867,7 +30881,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物49级</v>
+        <v>召唤物36级</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -30888,7 +30902,7 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>5014</v>
       </c>
       <c r="C47" s="4">
@@ -30906,8 +30920,8 @@
       <c r="G47" s="4">
         <v>105</v>
       </c>
-      <c r="H47" s="4">
-        <v>53</v>
+      <c r="H47" s="15">
+        <v>39</v>
       </c>
       <c r="I47" s="4">
         <v>98</v>
@@ -30917,7 +30931,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物53级</v>
+        <v>召唤物39级</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -30938,7 +30952,7 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>5015</v>
       </c>
       <c r="C48" s="4">
@@ -30956,8 +30970,8 @@
       <c r="G48" s="4">
         <v>110</v>
       </c>
-      <c r="H48" s="4">
-        <v>57</v>
+      <c r="H48" s="15">
+        <v>42</v>
       </c>
       <c r="I48" s="4">
         <v>98</v>
@@ -30967,7 +30981,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物57级</v>
+        <v>召唤物42级</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -30987,8 +31001,8 @@
       <c r="AC48" s="3"/>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8">
+      <c r="A49" s="3"/>
+      <c r="B49" s="7">
         <v>5016</v>
       </c>
       <c r="C49" s="4">
@@ -31006,8 +31020,8 @@
       <c r="G49" s="4">
         <v>115</v>
       </c>
-      <c r="H49" s="4">
-        <v>61</v>
+      <c r="H49" s="15">
+        <v>45</v>
       </c>
       <c r="I49" s="4">
         <v>98</v>
@@ -31017,7 +31031,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物61级</v>
+        <v>召唤物45级</v>
       </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -31037,8 +31051,8 @@
       <c r="AC49" s="3"/>
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8">
+      <c r="A50" s="3"/>
+      <c r="B50" s="7">
         <v>5017</v>
       </c>
       <c r="C50" s="4">
@@ -31056,8 +31070,8 @@
       <c r="G50" s="4">
         <v>120</v>
       </c>
-      <c r="H50" s="4">
-        <v>65</v>
+      <c r="H50" s="15">
+        <v>47</v>
       </c>
       <c r="I50" s="4">
         <v>98</v>
@@ -31067,7 +31081,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物65级</v>
+        <v>召唤物47级</v>
       </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -31087,8 +31101,8 @@
       <c r="AC50" s="3"/>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8">
+      <c r="A51" s="3"/>
+      <c r="B51" s="7">
         <v>5018</v>
       </c>
       <c r="C51" s="4">
@@ -31106,8 +31120,8 @@
       <c r="G51" s="4">
         <v>125</v>
       </c>
-      <c r="H51" s="4">
-        <v>70</v>
+      <c r="H51" s="15">
+        <v>50</v>
       </c>
       <c r="I51" s="4">
         <v>98</v>
@@ -31117,7 +31131,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>召唤物70级</v>
+        <v>召唤物50级</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -31137,10 +31151,10 @@
       <c r="AC51" s="3"/>
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>8001</v>
       </c>
       <c r="C52" s="4">
@@ -31194,7 +31208,7 @@
       <c r="A53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>8002</v>
       </c>
       <c r="C53" s="4">
@@ -31248,7 +31262,7 @@
       <c r="A54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>8003</v>
       </c>
       <c r="C54" s="4">
@@ -31300,7 +31314,7 @@
     </row>
     <row r="55" spans="1:29" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>8004</v>
       </c>
       <c r="C55" s="4">
@@ -31352,7 +31366,7 @@
     </row>
     <row r="56" spans="1:29" ht="15.75" customHeight="1">
       <c r="A56" s="4"/>
-      <c r="B56" s="8">
+      <c r="B56" s="7">
         <v>8005</v>
       </c>
       <c r="C56" s="4">
@@ -31404,7 +31418,7 @@
     </row>
     <row r="57" spans="1:29" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
-      <c r="B57" s="10">
+      <c r="B57" s="9">
         <v>8006</v>
       </c>
       <c r="C57" s="4">
@@ -31456,7 +31470,7 @@
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
-      <c r="B58" s="8">
+      <c r="B58" s="7">
         <v>8007</v>
       </c>
       <c r="C58" s="4">
@@ -31508,7 +31522,7 @@
     </row>
     <row r="59" spans="1:29" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
-      <c r="B59" s="10">
+      <c r="B59" s="9">
         <v>8008</v>
       </c>
       <c r="C59" s="4">
@@ -31560,7 +31574,7 @@
     </row>
     <row r="60" spans="1:29" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>8009</v>
       </c>
       <c r="C60" s="4">
@@ -31612,7 +31626,7 @@
     </row>
     <row r="61" spans="1:29" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
-      <c r="B61" s="10">
+      <c r="B61" s="9">
         <v>8010</v>
       </c>
       <c r="C61" s="4">
@@ -31664,7 +31678,7 @@
     </row>
     <row r="62" spans="1:29" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>8011</v>
       </c>
       <c r="C62" s="4">
@@ -31716,7 +31730,7 @@
     </row>
     <row r="63" spans="1:29" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="10">
+      <c r="B63" s="9">
         <v>8012</v>
       </c>
       <c r="C63" s="4">
@@ -31768,7 +31782,7 @@
     </row>
     <row r="64" spans="1:29" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>8013</v>
       </c>
       <c r="C64" s="4">
@@ -31820,7 +31834,7 @@
     </row>
     <row r="65" spans="1:29" ht="15.75" customHeight="1">
       <c r="A65" s="4"/>
-      <c r="B65" s="10">
+      <c r="B65" s="9">
         <v>8014</v>
       </c>
       <c r="C65" s="4">
@@ -31872,7 +31886,7 @@
     </row>
     <row r="66" spans="1:29" ht="15.75" customHeight="1">
       <c r="A66" s="4"/>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>8015</v>
       </c>
       <c r="C66" s="4">
@@ -31924,7 +31938,7 @@
     </row>
     <row r="67" spans="1:29" ht="15.75" customHeight="1">
       <c r="A67" s="4"/>
-      <c r="B67" s="10">
+      <c r="B67" s="9">
         <v>8016</v>
       </c>
       <c r="C67" s="4">
@@ -31976,7 +31990,7 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" customHeight="1">
       <c r="A68" s="4"/>
-      <c r="B68" s="8">
+      <c r="B68" s="7">
         <v>8017</v>
       </c>
       <c r="C68" s="4">
@@ -32028,7 +32042,7 @@
     </row>
     <row r="69" spans="1:29" ht="15.75" customHeight="1">
       <c r="A69" s="4"/>
-      <c r="B69" s="8">
+      <c r="B69" s="7">
         <v>8018</v>
       </c>
       <c r="C69" s="4">
@@ -32080,7 +32094,7 @@
     </row>
     <row r="70" spans="1:29" ht="15.75" customHeight="1">
       <c r="A70" s="4"/>
-      <c r="B70" s="10">
+      <c r="B70" s="9">
         <v>8019</v>
       </c>
       <c r="C70" s="4">
@@ -32132,7 +32146,7 @@
     </row>
     <row r="71" spans="1:29" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>8020</v>
       </c>
       <c r="C71" s="4">
@@ -32184,7 +32198,7 @@
     </row>
     <row r="72" spans="1:29" ht="15.75" customHeight="1">
       <c r="A72" s="4"/>
-      <c r="B72" s="10">
+      <c r="B72" s="9">
         <v>8021</v>
       </c>
       <c r="C72" s="4">
@@ -32236,7 +32250,7 @@
     </row>
     <row r="73" spans="1:29" ht="15.75" customHeight="1">
       <c r="A73" s="4"/>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>8022</v>
       </c>
       <c r="C73" s="4">
@@ -32288,7 +32302,7 @@
     </row>
     <row r="74" spans="1:29" ht="15.75" customHeight="1">
       <c r="A74" s="4"/>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>8023</v>
       </c>
       <c r="C74" s="4">
@@ -32340,7 +32354,7 @@
     </row>
     <row r="75" spans="1:29" ht="15.75" customHeight="1">
       <c r="A75" s="4"/>
-      <c r="B75" s="10">
+      <c r="B75" s="9">
         <v>8024</v>
       </c>
       <c r="C75" s="4">
@@ -32394,7 +32408,7 @@
       <c r="A76" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="9">
         <v>9001</v>
       </c>
       <c r="C76" s="4">
@@ -32443,10 +32457,10 @@
       <c r="AC76" s="3"/>
     </row>
     <row r="77" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="9">
         <v>9002</v>
       </c>
       <c r="C77" s="4">
@@ -32495,10 +32509,10 @@
       <c r="AC77" s="3"/>
     </row>
     <row r="78" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="9">
         <v>9003</v>
       </c>
       <c r="C78" s="4">
@@ -32547,8 +32561,8 @@
       <c r="AC78" s="3"/>
     </row>
     <row r="79" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="10">
+      <c r="A79" s="10"/>
+      <c r="B79" s="9">
         <v>9004</v>
       </c>
       <c r="C79" s="4">
@@ -32597,8 +32611,8 @@
       <c r="AC79" s="3"/>
     </row>
     <row r="80" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="10">
+      <c r="A80" s="10"/>
+      <c r="B80" s="9">
         <v>9005</v>
       </c>
       <c r="C80" s="4">
@@ -32647,8 +32661,8 @@
       <c r="AC80" s="3"/>
     </row>
     <row r="81" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10">
+      <c r="A81" s="10"/>
+      <c r="B81" s="9">
         <v>9006</v>
       </c>
       <c r="C81" s="4">
@@ -32697,8 +32711,8 @@
       <c r="AC81" s="3"/>
     </row>
     <row r="82" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="10">
+      <c r="A82" s="10"/>
+      <c r="B82" s="9">
         <v>9007</v>
       </c>
       <c r="C82" s="4">
@@ -32747,8 +32761,8 @@
       <c r="AC82" s="3"/>
     </row>
     <row r="83" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10">
+      <c r="A83" s="10"/>
+      <c r="B83" s="9">
         <v>9008</v>
       </c>
       <c r="C83" s="4">
@@ -32797,8 +32811,8 @@
       <c r="AC83" s="3"/>
     </row>
     <row r="84" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="10">
+      <c r="A84" s="10"/>
+      <c r="B84" s="9">
         <v>9009</v>
       </c>
       <c r="C84" s="4">
@@ -32847,8 +32861,8 @@
       <c r="AC84" s="3"/>
     </row>
     <row r="85" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="10">
+      <c r="A85" s="10"/>
+      <c r="B85" s="9">
         <v>9010</v>
       </c>
       <c r="C85" s="4">
@@ -32897,8 +32911,8 @@
       <c r="AC85" s="3"/>
     </row>
     <row r="86" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="10">
+      <c r="A86" s="10"/>
+      <c r="B86" s="9">
         <v>9011</v>
       </c>
       <c r="C86" s="4">
@@ -32947,8 +32961,8 @@
       <c r="AC86" s="3"/>
     </row>
     <row r="87" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="10">
+      <c r="A87" s="10"/>
+      <c r="B87" s="9">
         <v>9012</v>
       </c>
       <c r="C87" s="4">
@@ -32997,8 +33011,8 @@
       <c r="AC87" s="3"/>
     </row>
     <row r="88" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="10">
+      <c r="A88" s="10"/>
+      <c r="B88" s="9">
         <v>9013</v>
       </c>
       <c r="C88" s="4">
@@ -33047,8 +33061,8 @@
       <c r="AC88" s="3"/>
     </row>
     <row r="89" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="10">
+      <c r="A89" s="10"/>
+      <c r="B89" s="9">
         <v>9014</v>
       </c>
       <c r="C89" s="4">
@@ -33097,8 +33111,8 @@
       <c r="AC89" s="3"/>
     </row>
     <row r="90" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="10">
+      <c r="A90" s="10"/>
+      <c r="B90" s="9">
         <v>9015</v>
       </c>
       <c r="C90" s="4">
@@ -33147,8 +33161,8 @@
       <c r="AC90" s="3"/>
     </row>
     <row r="91" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="10">
+      <c r="A91" s="10"/>
+      <c r="B91" s="9">
         <v>9016</v>
       </c>
       <c r="C91" s="4">
@@ -33197,8 +33211,8 @@
       <c r="AC91" s="3"/>
     </row>
     <row r="92" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="10">
+      <c r="A92" s="10"/>
+      <c r="B92" s="9">
         <v>9017</v>
       </c>
       <c r="C92" s="4">
@@ -33247,8 +33261,8 @@
       <c r="AC92" s="3"/>
     </row>
     <row r="93" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="10">
+      <c r="A93" s="10"/>
+      <c r="B93" s="9">
         <v>9018</v>
       </c>
       <c r="C93" s="4">
@@ -33297,8 +33311,8 @@
       <c r="AC93" s="3"/>
     </row>
     <row r="94" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A94" s="11"/>
-      <c r="B94" s="10">
+      <c r="A94" s="10"/>
+      <c r="B94" s="9">
         <v>9019</v>
       </c>
       <c r="C94" s="4">
@@ -33347,8 +33361,8 @@
       <c r="AC94" s="3"/>
     </row>
     <row r="95" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="10">
+      <c r="A95" s="10"/>
+      <c r="B95" s="9">
         <v>9020</v>
       </c>
       <c r="C95" s="4">
@@ -33397,8 +33411,8 @@
       <c r="AC95" s="3"/>
     </row>
     <row r="96" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="10">
+      <c r="A96" s="10"/>
+      <c r="B96" s="9">
         <v>9021</v>
       </c>
       <c r="C96" s="4">
@@ -33447,8 +33461,8 @@
       <c r="AC96" s="3"/>
     </row>
     <row r="97" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="10">
+      <c r="A97" s="10"/>
+      <c r="B97" s="9">
         <v>9022</v>
       </c>
       <c r="C97" s="4">
@@ -33497,8 +33511,8 @@
       <c r="AC97" s="3"/>
     </row>
     <row r="98" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="10">
+      <c r="A98" s="10"/>
+      <c r="B98" s="9">
         <v>9023</v>
       </c>
       <c r="C98" s="4">
@@ -33547,8 +33561,8 @@
       <c r="AC98" s="3"/>
     </row>
     <row r="99" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="10">
+      <c r="A99" s="10"/>
+      <c r="B99" s="9">
         <v>9024</v>
       </c>
       <c r="C99" s="4">
@@ -33597,8 +33611,8 @@
       <c r="AC99" s="3"/>
     </row>
     <row r="100" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="10">
+      <c r="A100" s="10"/>
+      <c r="B100" s="9">
         <v>9025</v>
       </c>
       <c r="C100" s="4">
@@ -33647,8 +33661,8 @@
       <c r="AC100" s="3"/>
     </row>
     <row r="101" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="10">
+      <c r="A101" s="10"/>
+      <c r="B101" s="9">
         <v>9026</v>
       </c>
       <c r="C101" s="4">
@@ -33697,8 +33711,8 @@
       <c r="AC101" s="3"/>
     </row>
     <row r="102" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="10">
+      <c r="A102" s="10"/>
+      <c r="B102" s="9">
         <v>9027</v>
       </c>
       <c r="C102" s="4">
@@ -33747,8 +33761,8 @@
       <c r="AC102" s="3"/>
     </row>
     <row r="103" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="10">
+      <c r="A103" s="10"/>
+      <c r="B103" s="9">
         <v>9028</v>
       </c>
       <c r="C103" s="4">
@@ -33797,8 +33811,8 @@
       <c r="AC103" s="3"/>
     </row>
     <row r="104" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="10">
+      <c r="A104" s="10"/>
+      <c r="B104" s="9">
         <v>9029</v>
       </c>
       <c r="C104" s="4">
@@ -33847,8 +33861,8 @@
       <c r="AC104" s="3"/>
     </row>
     <row r="105" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A105" s="11"/>
-      <c r="B105" s="10">
+      <c r="A105" s="10"/>
+      <c r="B105" s="9">
         <v>9030</v>
       </c>
       <c r="C105" s="4">
@@ -33897,8 +33911,8 @@
       <c r="AC105" s="3"/>
     </row>
     <row r="106" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A106" s="11"/>
-      <c r="B106" s="10">
+      <c r="A106" s="10"/>
+      <c r="B106" s="9">
         <v>9031</v>
       </c>
       <c r="C106" s="4">
@@ -33947,8 +33961,8 @@
       <c r="AC106" s="3"/>
     </row>
     <row r="107" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A107" s="11"/>
-      <c r="B107" s="10">
+      <c r="A107" s="10"/>
+      <c r="B107" s="9">
         <v>9032</v>
       </c>
       <c r="C107" s="4">
@@ -33997,8 +34011,8 @@
       <c r="AC107" s="3"/>
     </row>
     <row r="108" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A108" s="11"/>
-      <c r="B108" s="10">
+      <c r="A108" s="10"/>
+      <c r="B108" s="9">
         <v>9033</v>
       </c>
       <c r="C108" s="4">
@@ -34047,10 +34061,10 @@
       <c r="AC108" s="3"/>
     </row>
     <row r="109" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="9">
         <v>10001</v>
       </c>
       <c r="C109" s="4">
@@ -34098,10 +34112,10 @@
       <c r="AC109" s="3"/>
     </row>
     <row r="110" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="9">
         <v>10002</v>
       </c>
       <c r="C110" s="4">
@@ -34149,8 +34163,8 @@
       <c r="AC110" s="3"/>
     </row>
     <row r="111" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="10">
+      <c r="A111" s="10"/>
+      <c r="B111" s="9">
         <v>10003</v>
       </c>
       <c r="C111" s="4">
@@ -34198,8 +34212,8 @@
       <c r="AC111" s="3"/>
     </row>
     <row r="112" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A112" s="11"/>
-      <c r="B112" s="10">
+      <c r="A112" s="10"/>
+      <c r="B112" s="9">
         <v>10004</v>
       </c>
       <c r="C112" s="4">
@@ -34247,8 +34261,8 @@
       <c r="AC112" s="3"/>
     </row>
     <row r="113" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A113" s="11"/>
-      <c r="B113" s="10">
+      <c r="A113" s="10"/>
+      <c r="B113" s="9">
         <v>10005</v>
       </c>
       <c r="C113" s="4">
@@ -34296,8 +34310,8 @@
       <c r="AC113" s="3"/>
     </row>
     <row r="114" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A114" s="11"/>
-      <c r="B114" s="10">
+      <c r="A114" s="10"/>
+      <c r="B114" s="9">
         <v>10006</v>
       </c>
       <c r="C114" s="4">
@@ -34345,8 +34359,8 @@
       <c r="AC114" s="3"/>
     </row>
     <row r="115" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="10">
+      <c r="A115" s="10"/>
+      <c r="B115" s="9">
         <v>10007</v>
       </c>
       <c r="C115" s="4">
@@ -34394,8 +34408,8 @@
       <c r="AC115" s="3"/>
     </row>
     <row r="116" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A116" s="11"/>
-      <c r="B116" s="10">
+      <c r="A116" s="10"/>
+      <c r="B116" s="9">
         <v>10008</v>
       </c>
       <c r="C116" s="4">
@@ -34443,8 +34457,8 @@
       <c r="AC116" s="3"/>
     </row>
     <row r="117" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A117" s="11"/>
-      <c r="B117" s="10">
+      <c r="A117" s="10"/>
+      <c r="B117" s="9">
         <v>10009</v>
       </c>
       <c r="C117" s="4">
@@ -34492,8 +34506,8 @@
       <c r="AC117" s="3"/>
     </row>
     <row r="118" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A118" s="11"/>
-      <c r="B118" s="10">
+      <c r="A118" s="10"/>
+      <c r="B118" s="9">
         <v>10010</v>
       </c>
       <c r="C118" s="4">
@@ -34541,8 +34555,8 @@
       <c r="AC118" s="3"/>
     </row>
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A119" s="11"/>
-      <c r="B119" s="10">
+      <c r="A119" s="10"/>
+      <c r="B119" s="9">
         <v>10011</v>
       </c>
       <c r="C119" s="4">
@@ -34590,8 +34604,8 @@
       <c r="AC119" s="3"/>
     </row>
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A120" s="11"/>
-      <c r="B120" s="10">
+      <c r="A120" s="10"/>
+      <c r="B120" s="9">
         <v>10012</v>
       </c>
       <c r="C120" s="4">
@@ -34639,8 +34653,8 @@
       <c r="AC120" s="3"/>
     </row>
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A121" s="11"/>
-      <c r="B121" s="10">
+      <c r="A121" s="10"/>
+      <c r="B121" s="9">
         <v>10013</v>
       </c>
       <c r="C121" s="4">
@@ -34688,8 +34702,8 @@
       <c r="AC121" s="3"/>
     </row>
     <row r="122" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A122" s="11"/>
-      <c r="B122" s="10">
+      <c r="A122" s="10"/>
+      <c r="B122" s="9">
         <v>10014</v>
       </c>
       <c r="C122" s="4">
@@ -34737,8 +34751,8 @@
       <c r="AC122" s="3"/>
     </row>
     <row r="123" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A123" s="11"/>
-      <c r="B123" s="10">
+      <c r="A123" s="10"/>
+      <c r="B123" s="9">
         <v>10015</v>
       </c>
       <c r="C123" s="4">
@@ -34786,8 +34800,8 @@
       <c r="AC123" s="3"/>
     </row>
     <row r="124" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A124" s="11"/>
-      <c r="B124" s="10">
+      <c r="A124" s="10"/>
+      <c r="B124" s="9">
         <v>10016</v>
       </c>
       <c r="C124" s="4">
@@ -34835,10 +34849,10 @@
       <c r="AC124" s="3"/>
     </row>
     <row r="125" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="9">
         <v>13001</v>
       </c>
       <c r="C125" s="4">
@@ -34890,10 +34904,10 @@
       <c r="AC125" s="3"/>
     </row>
     <row r="126" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="3">
         <v>13002</v>
       </c>
       <c r="C126" s="4">
@@ -34945,8 +34959,8 @@
       <c r="AC126" s="3"/>
     </row>
     <row r="127" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A127" s="11"/>
-      <c r="B127" s="10">
+      <c r="A127" s="10"/>
+      <c r="B127" s="9">
         <v>13003</v>
       </c>
       <c r="C127" s="4">
@@ -34998,8 +35012,8 @@
       <c r="AC127" s="3"/>
     </row>
     <row r="128" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A128" s="11"/>
-      <c r="B128" s="7">
+      <c r="A128" s="10"/>
+      <c r="B128" s="3">
         <v>13004</v>
       </c>
       <c r="C128" s="4">
@@ -35051,8 +35065,8 @@
       <c r="AC128" s="3"/>
     </row>
     <row r="129" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A129" s="11"/>
-      <c r="B129" s="10">
+      <c r="A129" s="10"/>
+      <c r="B129" s="9">
         <v>13005</v>
       </c>
       <c r="C129" s="4">
@@ -35104,8 +35118,8 @@
       <c r="AC129" s="3"/>
     </row>
     <row r="130" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A130" s="11"/>
-      <c r="B130" s="7">
+      <c r="A130" s="10"/>
+      <c r="B130" s="3">
         <v>13006</v>
       </c>
       <c r="C130" s="4">
@@ -35157,8 +35171,8 @@
       <c r="AC130" s="3"/>
     </row>
     <row r="131" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A131" s="11"/>
-      <c r="B131" s="10">
+      <c r="A131" s="10"/>
+      <c r="B131" s="9">
         <v>13007</v>
       </c>
       <c r="C131" s="4">
@@ -35210,8 +35224,8 @@
       <c r="AC131" s="3"/>
     </row>
     <row r="132" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A132" s="11"/>
-      <c r="B132" s="7">
+      <c r="A132" s="10"/>
+      <c r="B132" s="3">
         <v>13008</v>
       </c>
       <c r="C132" s="4">
@@ -35263,8 +35277,8 @@
       <c r="AC132" s="3"/>
     </row>
     <row r="133" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A133" s="11"/>
-      <c r="B133" s="10">
+      <c r="A133" s="10"/>
+      <c r="B133" s="9">
         <v>13009</v>
       </c>
       <c r="C133" s="4">
@@ -35316,8 +35330,8 @@
       <c r="AC133" s="3"/>
     </row>
     <row r="134" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A134" s="11"/>
-      <c r="B134" s="7">
+      <c r="A134" s="10"/>
+      <c r="B134" s="3">
         <v>13010</v>
       </c>
       <c r="C134" s="4">
@@ -35369,8 +35383,8 @@
       <c r="AC134" s="3"/>
     </row>
     <row r="135" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A135" s="11"/>
-      <c r="B135" s="10">
+      <c r="A135" s="10"/>
+      <c r="B135" s="9">
         <v>13011</v>
       </c>
       <c r="C135" s="4">
@@ -35422,8 +35436,8 @@
       <c r="AC135" s="3"/>
     </row>
     <row r="136" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A136" s="11"/>
-      <c r="B136" s="7">
+      <c r="A136" s="10"/>
+      <c r="B136" s="3">
         <v>13012</v>
       </c>
       <c r="C136" s="4">
@@ -35475,8 +35489,8 @@
       <c r="AC136" s="3"/>
     </row>
     <row r="137" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A137" s="11"/>
-      <c r="B137" s="7">
+      <c r="A137" s="10"/>
+      <c r="B137" s="3">
         <v>13013</v>
       </c>
       <c r="C137" s="4">
@@ -35528,8 +35542,8 @@
       <c r="AC137" s="3"/>
     </row>
     <row r="138" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A138" s="11"/>
-      <c r="B138" s="10">
+      <c r="A138" s="10"/>
+      <c r="B138" s="9">
         <v>13014</v>
       </c>
       <c r="C138" s="4">
@@ -35581,8 +35595,8 @@
       <c r="AC138" s="3"/>
     </row>
     <row r="139" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A139" s="11"/>
-      <c r="B139" s="7">
+      <c r="A139" s="10"/>
+      <c r="B139" s="3">
         <v>13015</v>
       </c>
       <c r="C139" s="4">
@@ -35634,8 +35648,8 @@
       <c r="AC139" s="3"/>
     </row>
     <row r="140" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A140" s="11"/>
-      <c r="B140" s="10">
+      <c r="A140" s="10"/>
+      <c r="B140" s="9">
         <v>13016</v>
       </c>
       <c r="C140" s="4">
@@ -35687,8 +35701,8 @@
       <c r="AC140" s="3"/>
     </row>
     <row r="141" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A141" s="11"/>
-      <c r="B141" s="7">
+      <c r="A141" s="10"/>
+      <c r="B141" s="3">
         <v>13017</v>
       </c>
       <c r="C141" s="4">
@@ -35740,8 +35754,8 @@
       <c r="AC141" s="3"/>
     </row>
     <row r="142" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A142" s="11"/>
-      <c r="B142" s="10">
+      <c r="A142" s="10"/>
+      <c r="B142" s="9">
         <v>13018</v>
       </c>
       <c r="C142" s="4">
@@ -35793,8 +35807,8 @@
       <c r="AC142" s="3"/>
     </row>
     <row r="143" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A143" s="11"/>
-      <c r="B143" s="7">
+      <c r="A143" s="10"/>
+      <c r="B143" s="3">
         <v>13019</v>
       </c>
       <c r="C143" s="4">
@@ -35846,8 +35860,8 @@
       <c r="AC143" s="3"/>
     </row>
     <row r="144" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A144" s="11"/>
-      <c r="B144" s="7">
+      <c r="A144" s="10"/>
+      <c r="B144" s="3">
         <v>13020</v>
       </c>
       <c r="C144" s="4">
@@ -35899,8 +35913,8 @@
       <c r="AC144" s="3"/>
     </row>
     <row r="145" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A145" s="11"/>
-      <c r="B145" s="10">
+      <c r="A145" s="10"/>
+      <c r="B145" s="9">
         <v>13021</v>
       </c>
       <c r="C145" s="4">
@@ -35952,8 +35966,8 @@
       <c r="AC145" s="3"/>
     </row>
     <row r="146" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A146" s="11"/>
-      <c r="B146" s="7">
+      <c r="A146" s="10"/>
+      <c r="B146" s="3">
         <v>13022</v>
       </c>
       <c r="C146" s="4">
@@ -36005,8 +36019,8 @@
       <c r="AC146" s="3"/>
     </row>
     <row r="147" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A147" s="11"/>
-      <c r="B147" s="10">
+      <c r="A147" s="10"/>
+      <c r="B147" s="9">
         <v>13023</v>
       </c>
       <c r="C147" s="4">
@@ -36058,8 +36072,8 @@
       <c r="AC147" s="3"/>
     </row>
     <row r="148" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A148" s="11"/>
-      <c r="B148" s="7">
+      <c r="A148" s="10"/>
+      <c r="B148" s="3">
         <v>13024</v>
       </c>
       <c r="C148" s="4">
@@ -36111,8 +36125,8 @@
       <c r="AC148" s="3"/>
     </row>
     <row r="149" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A149" s="11"/>
-      <c r="B149" s="10">
+      <c r="A149" s="10"/>
+      <c r="B149" s="9">
         <v>13025</v>
       </c>
       <c r="C149" s="4">
@@ -36164,8 +36178,8 @@
       <c r="AC149" s="3"/>
     </row>
     <row r="150" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A150" s="11"/>
-      <c r="B150" s="7">
+      <c r="A150" s="10"/>
+      <c r="B150" s="3">
         <v>13026</v>
       </c>
       <c r="C150" s="4">
@@ -36217,8 +36231,8 @@
       <c r="AC150" s="3"/>
     </row>
     <row r="151" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A151" s="11"/>
-      <c r="B151" s="7">
+      <c r="A151" s="10"/>
+      <c r="B151" s="3">
         <v>13027</v>
       </c>
       <c r="C151" s="4">
@@ -36270,8 +36284,8 @@
       <c r="AC151" s="3"/>
     </row>
     <row r="152" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A152" s="11"/>
-      <c r="B152" s="10">
+      <c r="A152" s="10"/>
+      <c r="B152" s="9">
         <v>13028</v>
       </c>
       <c r="C152" s="4">
@@ -36323,8 +36337,8 @@
       <c r="AC152" s="3"/>
     </row>
     <row r="153" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A153" s="11"/>
-      <c r="B153" s="7">
+      <c r="A153" s="10"/>
+      <c r="B153" s="3">
         <v>13029</v>
       </c>
       <c r="C153" s="4">
@@ -36376,8 +36390,8 @@
       <c r="AC153" s="3"/>
     </row>
     <row r="154" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A154" s="11"/>
-      <c r="B154" s="10">
+      <c r="A154" s="10"/>
+      <c r="B154" s="9">
         <v>13030</v>
       </c>
       <c r="C154" s="4">
@@ -36429,8 +36443,8 @@
       <c r="AC154" s="3"/>
     </row>
     <row r="155" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A155" s="11"/>
-      <c r="B155" s="7">
+      <c r="A155" s="10"/>
+      <c r="B155" s="3">
         <v>13031</v>
       </c>
       <c r="C155" s="4">
@@ -36482,8 +36496,8 @@
       <c r="AC155" s="3"/>
     </row>
     <row r="156" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A156" s="11"/>
-      <c r="B156" s="10">
+      <c r="A156" s="10"/>
+      <c r="B156" s="9">
         <v>13032</v>
       </c>
       <c r="C156" s="4">
@@ -36535,8 +36549,8 @@
       <c r="AC156" s="3"/>
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A157" s="11"/>
-      <c r="B157" s="7">
+      <c r="A157" s="10"/>
+      <c r="B157" s="3">
         <v>13033</v>
       </c>
       <c r="C157" s="4">
@@ -36588,8 +36602,8 @@
       <c r="AC157" s="3"/>
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A158" s="11"/>
-      <c r="B158" s="7">
+      <c r="A158" s="10"/>
+      <c r="B158" s="3">
         <v>13034</v>
       </c>
       <c r="C158" s="4">
@@ -36641,10 +36655,10 @@
       <c r="AC158" s="3"/>
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B159" s="10">
+      <c r="B159" s="9">
         <v>14001</v>
       </c>
       <c r="C159" s="4">
@@ -36693,10 +36707,10 @@
       <c r="AC159" s="3"/>
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B160" s="10">
+      <c r="B160" s="9">
         <v>14002</v>
       </c>
       <c r="C160" s="4">
@@ -36745,8 +36759,8 @@
       <c r="AC160" s="3"/>
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A161" s="13"/>
-      <c r="B161" s="10">
+      <c r="A161" s="12"/>
+      <c r="B161" s="9">
         <v>14003</v>
       </c>
       <c r="C161" s="4">
@@ -36795,8 +36809,8 @@
       <c r="AC161" s="3"/>
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A162" s="13"/>
-      <c r="B162" s="10">
+      <c r="A162" s="12"/>
+      <c r="B162" s="9">
         <v>14004</v>
       </c>
       <c r="C162" s="4">
@@ -36845,8 +36859,8 @@
       <c r="AC162" s="3"/>
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A163" s="13"/>
-      <c r="B163" s="10">
+      <c r="A163" s="12"/>
+      <c r="B163" s="9">
         <v>14005</v>
       </c>
       <c r="C163" s="4">
@@ -36895,8 +36909,8 @@
       <c r="AC163" s="3"/>
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A164" s="13"/>
-      <c r="B164" s="10">
+      <c r="A164" s="12"/>
+      <c r="B164" s="9">
         <v>14006</v>
       </c>
       <c r="C164" s="4">
@@ -36945,8 +36959,8 @@
       <c r="AC164" s="3"/>
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A165" s="13"/>
-      <c r="B165" s="10">
+      <c r="A165" s="12"/>
+      <c r="B165" s="9">
         <v>14007</v>
       </c>
       <c r="C165" s="4">
@@ -36995,8 +37009,8 @@
       <c r="AC165" s="3"/>
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A166" s="13"/>
-      <c r="B166" s="10">
+      <c r="A166" s="12"/>
+      <c r="B166" s="9">
         <v>14008</v>
       </c>
       <c r="C166" s="4">
@@ -37045,8 +37059,8 @@
       <c r="AC166" s="3"/>
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A167" s="13"/>
-      <c r="B167" s="10">
+      <c r="A167" s="12"/>
+      <c r="B167" s="9">
         <v>14009</v>
       </c>
       <c r="C167" s="4">
@@ -37095,8 +37109,8 @@
       <c r="AC167" s="3"/>
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A168" s="13"/>
-      <c r="B168" s="10">
+      <c r="A168" s="12"/>
+      <c r="B168" s="9">
         <v>14010</v>
       </c>
       <c r="C168" s="4">
@@ -37145,8 +37159,8 @@
       <c r="AC168" s="3"/>
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A169" s="13"/>
-      <c r="B169" s="10">
+      <c r="A169" s="12"/>
+      <c r="B169" s="9">
         <v>14011</v>
       </c>
       <c r="C169" s="4">
@@ -37195,8 +37209,8 @@
       <c r="AC169" s="3"/>
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A170" s="13"/>
-      <c r="B170" s="10">
+      <c r="A170" s="12"/>
+      <c r="B170" s="9">
         <v>14012</v>
       </c>
       <c r="C170" s="4">
@@ -37245,8 +37259,8 @@
       <c r="AC170" s="3"/>
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A171" s="13"/>
-      <c r="B171" s="10">
+      <c r="A171" s="12"/>
+      <c r="B171" s="9">
         <v>14013</v>
       </c>
       <c r="C171" s="4">
@@ -37295,8 +37309,8 @@
       <c r="AC171" s="3"/>
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A172" s="13"/>
-      <c r="B172" s="10">
+      <c r="A172" s="12"/>
+      <c r="B172" s="9">
         <v>14014</v>
       </c>
       <c r="C172" s="4">
@@ -37345,8 +37359,8 @@
       <c r="AC172" s="3"/>
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A173" s="13"/>
-      <c r="B173" s="10">
+      <c r="A173" s="12"/>
+      <c r="B173" s="9">
         <v>14015</v>
       </c>
       <c r="C173" s="4">
@@ -37395,8 +37409,8 @@
       <c r="AC173" s="3"/>
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A174" s="13"/>
-      <c r="B174" s="10">
+      <c r="A174" s="12"/>
+      <c r="B174" s="9">
         <v>14016</v>
       </c>
       <c r="C174" s="4">
@@ -37444,9 +37458,9 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175" spans="1:29" ht="15.75">
-      <c r="A175" s="13"/>
-      <c r="B175" s="10">
+    <row r="175" spans="1:29" ht="16">
+      <c r="A175" s="12"/>
+      <c r="B175" s="9">
         <v>14017</v>
       </c>
       <c r="C175" s="4">
@@ -37470,33 +37484,33 @@
       <c r="I175" s="4">
         <v>7800</v>
       </c>
-      <c r="J175" s="14"/>
-      <c r="K175" s="14"/>
-      <c r="L175" s="14"/>
+      <c r="J175" s="13"/>
+      <c r="K175" s="13"/>
+      <c r="L175" s="13"/>
       <c r="M175" s="3" t="str">
         <f t="shared" si="9"/>
         <v>持续时间7.8s造成伤害系数1.3</v>
       </c>
-      <c r="N175" s="14"/>
-      <c r="O175" s="14"/>
-      <c r="P175" s="14"/>
-      <c r="Q175" s="14"/>
-      <c r="R175" s="14"/>
-      <c r="S175" s="14"/>
-      <c r="T175" s="14"/>
-      <c r="U175" s="14"/>
-      <c r="V175" s="14"/>
-      <c r="W175" s="14"/>
-      <c r="X175" s="14"/>
-      <c r="Y175" s="14"/>
-      <c r="Z175" s="14"/>
-      <c r="AA175" s="14"/>
-      <c r="AB175" s="14"/>
-      <c r="AC175" s="14"/>
+      <c r="N175" s="13"/>
+      <c r="O175" s="13"/>
+      <c r="P175" s="13"/>
+      <c r="Q175" s="13"/>
+      <c r="R175" s="13"/>
+      <c r="S175" s="13"/>
+      <c r="T175" s="13"/>
+      <c r="U175" s="13"/>
+      <c r="V175" s="13"/>
+      <c r="W175" s="13"/>
+      <c r="X175" s="13"/>
+      <c r="Y175" s="13"/>
+      <c r="Z175" s="13"/>
+      <c r="AA175" s="13"/>
+      <c r="AB175" s="13"/>
+      <c r="AC175" s="13"/>
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A176" s="13"/>
-      <c r="B176" s="10">
+      <c r="A176" s="12"/>
+      <c r="B176" s="9">
         <v>14018</v>
       </c>
       <c r="C176" s="4">
@@ -37545,8 +37559,8 @@
       <c r="AC176" s="3"/>
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A177" s="13"/>
-      <c r="B177" s="10">
+      <c r="A177" s="12"/>
+      <c r="B177" s="9">
         <v>14019</v>
       </c>
       <c r="C177" s="4">
@@ -37595,8 +37609,8 @@
       <c r="AC177" s="3"/>
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A178" s="13"/>
-      <c r="B178" s="10">
+      <c r="A178" s="12"/>
+      <c r="B178" s="9">
         <v>14020</v>
       </c>
       <c r="C178" s="4">
@@ -37645,10 +37659,10 @@
       <c r="AC178" s="3"/>
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B179" s="10">
+      <c r="B179" s="9">
         <v>15001</v>
       </c>
       <c r="C179" s="4">
@@ -37695,10 +37709,10 @@
       <c r="AC179" s="3"/>
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B180" s="10">
+      <c r="B180" s="9">
         <v>15002</v>
       </c>
       <c r="C180" s="4">
@@ -37745,8 +37759,8 @@
       <c r="AC180" s="3"/>
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A181" s="11"/>
-      <c r="B181" s="10">
+      <c r="A181" s="10"/>
+      <c r="B181" s="9">
         <v>15003</v>
       </c>
       <c r="C181" s="4">
@@ -37793,8 +37807,8 @@
       <c r="AC181" s="3"/>
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A182" s="11"/>
-      <c r="B182" s="10">
+      <c r="A182" s="10"/>
+      <c r="B182" s="9">
         <v>15004</v>
       </c>
       <c r="C182" s="4">
@@ -37841,8 +37855,8 @@
       <c r="AC182" s="3"/>
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A183" s="11"/>
-      <c r="B183" s="10">
+      <c r="A183" s="10"/>
+      <c r="B183" s="9">
         <v>15005</v>
       </c>
       <c r="C183" s="4">
@@ -37889,8 +37903,8 @@
       <c r="AC183" s="3"/>
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A184" s="11"/>
-      <c r="B184" s="10">
+      <c r="A184" s="10"/>
+      <c r="B184" s="9">
         <v>15006</v>
       </c>
       <c r="C184" s="4">
@@ -37937,8 +37951,8 @@
       <c r="AC184" s="3"/>
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A185" s="11"/>
-      <c r="B185" s="10">
+      <c r="A185" s="10"/>
+      <c r="B185" s="9">
         <v>15007</v>
       </c>
       <c r="C185" s="4">
@@ -37985,8 +37999,8 @@
       <c r="AC185" s="3"/>
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A186" s="11"/>
-      <c r="B186" s="10">
+      <c r="A186" s="10"/>
+      <c r="B186" s="9">
         <v>15008</v>
       </c>
       <c r="C186" s="4">
@@ -38033,8 +38047,8 @@
       <c r="AC186" s="3"/>
     </row>
     <row r="187" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A187" s="11"/>
-      <c r="B187" s="10">
+      <c r="A187" s="10"/>
+      <c r="B187" s="9">
         <v>15009</v>
       </c>
       <c r="C187" s="4">
@@ -38081,8 +38095,8 @@
       <c r="AC187" s="3"/>
     </row>
     <row r="188" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A188" s="11"/>
-      <c r="B188" s="10">
+      <c r="A188" s="10"/>
+      <c r="B188" s="9">
         <v>15010</v>
       </c>
       <c r="C188" s="4">
@@ -38129,8 +38143,8 @@
       <c r="AC188" s="3"/>
     </row>
     <row r="189" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A189" s="11"/>
-      <c r="B189" s="10">
+      <c r="A189" s="10"/>
+      <c r="B189" s="9">
         <v>15011</v>
       </c>
       <c r="C189" s="4">
@@ -38177,8 +38191,8 @@
       <c r="AC189" s="3"/>
     </row>
     <row r="190" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A190" s="11"/>
-      <c r="B190" s="10">
+      <c r="A190" s="10"/>
+      <c r="B190" s="9">
         <v>15012</v>
       </c>
       <c r="C190" s="4">
@@ -38225,8 +38239,8 @@
       <c r="AC190" s="3"/>
     </row>
     <row r="191" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A191" s="11"/>
-      <c r="B191" s="10">
+      <c r="A191" s="10"/>
+      <c r="B191" s="9">
         <v>15013</v>
       </c>
       <c r="C191" s="4">
@@ -38273,8 +38287,8 @@
       <c r="AC191" s="3"/>
     </row>
     <row r="192" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A192" s="11"/>
-      <c r="B192" s="10">
+      <c r="A192" s="10"/>
+      <c r="B192" s="9">
         <v>15014</v>
       </c>
       <c r="C192" s="4">
@@ -38321,8 +38335,8 @@
       <c r="AC192" s="3"/>
     </row>
     <row r="193" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A193" s="11"/>
-      <c r="B193" s="10">
+      <c r="A193" s="10"/>
+      <c r="B193" s="9">
         <v>15015</v>
       </c>
       <c r="C193" s="4">
@@ -38369,8 +38383,8 @@
       <c r="AC193" s="3"/>
     </row>
     <row r="194" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A194" s="11"/>
-      <c r="B194" s="10">
+      <c r="A194" s="10"/>
+      <c r="B194" s="9">
         <v>15016</v>
       </c>
       <c r="C194" s="4">
@@ -38417,8 +38431,8 @@
       <c r="AC194" s="3"/>
     </row>
     <row r="195" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A195" s="11"/>
-      <c r="B195" s="10">
+      <c r="A195" s="10"/>
+      <c r="B195" s="9">
         <v>15017</v>
       </c>
       <c r="C195" s="4">
@@ -38465,10 +38479,10 @@
       <c r="AC195" s="3"/>
     </row>
     <row r="196" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A196" s="11" t="s">
+      <c r="A196" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B196" s="10">
+      <c r="B196" s="9">
         <v>18001</v>
       </c>
       <c r="C196" s="4">
@@ -38517,10 +38531,10 @@
       <c r="AC196" s="3"/>
     </row>
     <row r="197" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A197" s="11" t="s">
+      <c r="A197" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B197" s="10">
+      <c r="B197" s="9">
         <v>18002</v>
       </c>
       <c r="C197" s="4">
@@ -38569,10 +38583,10 @@
       <c r="AC197" s="3"/>
     </row>
     <row r="198" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A198" s="11" t="s">
+      <c r="A198" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B198" s="10">
+      <c r="B198" s="9">
         <v>18003</v>
       </c>
       <c r="C198" s="4">
@@ -38621,8 +38635,8 @@
       <c r="AC198" s="3"/>
     </row>
     <row r="199" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A199" s="11"/>
-      <c r="B199" s="10">
+      <c r="A199" s="10"/>
+      <c r="B199" s="9">
         <v>18004</v>
       </c>
       <c r="C199" s="4">
@@ -38671,8 +38685,8 @@
       <c r="AC199" s="3"/>
     </row>
     <row r="200" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A200" s="11"/>
-      <c r="B200" s="10">
+      <c r="A200" s="10"/>
+      <c r="B200" s="9">
         <v>18005</v>
       </c>
       <c r="C200" s="4">
@@ -38721,8 +38735,8 @@
       <c r="AC200" s="3"/>
     </row>
     <row r="201" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A201" s="11"/>
-      <c r="B201" s="10">
+      <c r="A201" s="10"/>
+      <c r="B201" s="9">
         <v>18006</v>
       </c>
       <c r="C201" s="4">
@@ -38771,8 +38785,8 @@
       <c r="AC201" s="3"/>
     </row>
     <row r="202" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A202" s="11"/>
-      <c r="B202" s="10">
+      <c r="A202" s="10"/>
+      <c r="B202" s="9">
         <v>18007</v>
       </c>
       <c r="C202" s="4">
@@ -38821,8 +38835,8 @@
       <c r="AC202" s="3"/>
     </row>
     <row r="203" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A203" s="11"/>
-      <c r="B203" s="10">
+      <c r="A203" s="10"/>
+      <c r="B203" s="9">
         <v>18008</v>
       </c>
       <c r="C203" s="4">
@@ -38871,8 +38885,8 @@
       <c r="AC203" s="3"/>
     </row>
     <row r="204" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A204" s="11"/>
-      <c r="B204" s="10">
+      <c r="A204" s="10"/>
+      <c r="B204" s="9">
         <v>18009</v>
       </c>
       <c r="C204" s="4">
@@ -38921,8 +38935,8 @@
       <c r="AC204" s="3"/>
     </row>
     <row r="205" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A205" s="11"/>
-      <c r="B205" s="10">
+      <c r="A205" s="10"/>
+      <c r="B205" s="9">
         <v>18010</v>
       </c>
       <c r="C205" s="4">
@@ -38971,8 +38985,8 @@
       <c r="AC205" s="3"/>
     </row>
     <row r="206" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A206" s="11"/>
-      <c r="B206" s="10">
+      <c r="A206" s="10"/>
+      <c r="B206" s="9">
         <v>18011</v>
       </c>
       <c r="C206" s="4">
@@ -39021,8 +39035,8 @@
       <c r="AC206" s="3"/>
     </row>
     <row r="207" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A207" s="11"/>
-      <c r="B207" s="10">
+      <c r="A207" s="10"/>
+      <c r="B207" s="9">
         <v>18012</v>
       </c>
       <c r="C207" s="4">
@@ -39071,8 +39085,8 @@
       <c r="AC207" s="3"/>
     </row>
     <row r="208" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A208" s="11"/>
-      <c r="B208" s="10">
+      <c r="A208" s="10"/>
+      <c r="B208" s="9">
         <v>18013</v>
       </c>
       <c r="C208" s="4">
@@ -39121,8 +39135,8 @@
       <c r="AC208" s="3"/>
     </row>
     <row r="209" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A209" s="11"/>
-      <c r="B209" s="10">
+      <c r="A209" s="10"/>
+      <c r="B209" s="9">
         <v>18014</v>
       </c>
       <c r="C209" s="4">
@@ -39171,8 +39185,8 @@
       <c r="AC209" s="3"/>
     </row>
     <row r="210" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A210" s="11"/>
-      <c r="B210" s="10">
+      <c r="A210" s="10"/>
+      <c r="B210" s="9">
         <v>18015</v>
       </c>
       <c r="C210" s="4">
@@ -39221,8 +39235,8 @@
       <c r="AC210" s="3"/>
     </row>
     <row r="211" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A211" s="11"/>
-      <c r="B211" s="10">
+      <c r="A211" s="10"/>
+      <c r="B211" s="9">
         <v>18016</v>
       </c>
       <c r="C211" s="4">
@@ -39271,8 +39285,8 @@
       <c r="AC211" s="3"/>
     </row>
     <row r="212" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A212" s="11"/>
-      <c r="B212" s="10">
+      <c r="A212" s="10"/>
+      <c r="B212" s="9">
         <v>18017</v>
       </c>
       <c r="C212" s="4">
@@ -39321,8 +39335,8 @@
       <c r="AC212" s="3"/>
     </row>
     <row r="213" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A213" s="11"/>
-      <c r="B213" s="10">
+      <c r="A213" s="10"/>
+      <c r="B213" s="9">
         <v>18018</v>
       </c>
       <c r="C213" s="4">
@@ -39371,8 +39385,8 @@
       <c r="AC213" s="3"/>
     </row>
     <row r="214" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A214" s="11"/>
-      <c r="B214" s="10">
+      <c r="A214" s="10"/>
+      <c r="B214" s="9">
         <v>18019</v>
       </c>
       <c r="C214" s="4">
@@ -39421,8 +39435,8 @@
       <c r="AC214" s="3"/>
     </row>
     <row r="215" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A215" s="11"/>
-      <c r="B215" s="10">
+      <c r="A215" s="10"/>
+      <c r="B215" s="9">
         <v>18020</v>
       </c>
       <c r="C215" s="4">
@@ -39471,8 +39485,8 @@
       <c r="AC215" s="3"/>
     </row>
     <row r="216" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A216" s="11"/>
-      <c r="B216" s="10">
+      <c r="A216" s="10"/>
+      <c r="B216" s="9">
         <v>18021</v>
       </c>
       <c r="C216" s="4">
@@ -39521,8 +39535,8 @@
       <c r="AC216" s="3"/>
     </row>
     <row r="217" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A217" s="11"/>
-      <c r="B217" s="10">
+      <c r="A217" s="10"/>
+      <c r="B217" s="9">
         <v>18022</v>
       </c>
       <c r="C217" s="4">
@@ -39571,8 +39585,8 @@
       <c r="AC217" s="3"/>
     </row>
     <row r="218" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A218" s="11"/>
-      <c r="B218" s="10">
+      <c r="A218" s="10"/>
+      <c r="B218" s="9">
         <v>18023</v>
       </c>
       <c r="C218" s="4">
@@ -39621,8 +39635,8 @@
       <c r="AC218" s="3"/>
     </row>
     <row r="219" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A219" s="11"/>
-      <c r="B219" s="10">
+      <c r="A219" s="10"/>
+      <c r="B219" s="9">
         <v>18024</v>
       </c>
       <c r="C219" s="4">
@@ -39671,8 +39685,8 @@
       <c r="AC219" s="3"/>
     </row>
     <row r="220" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A220" s="11"/>
-      <c r="B220" s="10">
+      <c r="A220" s="10"/>
+      <c r="B220" s="9">
         <v>18025</v>
       </c>
       <c r="C220" s="4">
@@ -39721,8 +39735,8 @@
       <c r="AC220" s="3"/>
     </row>
     <row r="221" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A221" s="11"/>
-      <c r="B221" s="10">
+      <c r="A221" s="10"/>
+      <c r="B221" s="9">
         <v>18026</v>
       </c>
       <c r="C221" s="4">
@@ -39771,8 +39785,8 @@
       <c r="AC221" s="3"/>
     </row>
     <row r="222" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A222" s="11"/>
-      <c r="B222" s="10">
+      <c r="A222" s="10"/>
+      <c r="B222" s="9">
         <v>18027</v>
       </c>
       <c r="C222" s="4">
@@ -39821,8 +39835,8 @@
       <c r="AC222" s="3"/>
     </row>
     <row r="223" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A223" s="11"/>
-      <c r="B223" s="10">
+      <c r="A223" s="10"/>
+      <c r="B223" s="9">
         <v>18028</v>
       </c>
       <c r="C223" s="4">
@@ -39871,8 +39885,8 @@
       <c r="AC223" s="3"/>
     </row>
     <row r="224" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A224" s="11"/>
-      <c r="B224" s="10">
+      <c r="A224" s="10"/>
+      <c r="B224" s="9">
         <v>18029</v>
       </c>
       <c r="C224" s="4">
@@ -39921,8 +39935,8 @@
       <c r="AC224" s="3"/>
     </row>
     <row r="225" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A225" s="11"/>
-      <c r="B225" s="10">
+      <c r="A225" s="10"/>
+      <c r="B225" s="9">
         <v>18030</v>
       </c>
       <c r="C225" s="4">
@@ -39971,8 +39985,8 @@
       <c r="AC225" s="3"/>
     </row>
     <row r="226" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A226" s="11"/>
-      <c r="B226" s="10">
+      <c r="A226" s="10"/>
+      <c r="B226" s="9">
         <v>18031</v>
       </c>
       <c r="C226" s="4">
@@ -40021,8 +40035,8 @@
       <c r="AC226" s="3"/>
     </row>
     <row r="227" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A227" s="11"/>
-      <c r="B227" s="10">
+      <c r="A227" s="10"/>
+      <c r="B227" s="9">
         <v>18032</v>
       </c>
       <c r="C227" s="4">
@@ -40071,8 +40085,8 @@
       <c r="AC227" s="3"/>
     </row>
     <row r="228" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A228" s="11"/>
-      <c r="B228" s="10">
+      <c r="A228" s="10"/>
+      <c r="B228" s="9">
         <v>18033</v>
       </c>
       <c r="C228" s="4">
@@ -40121,8 +40135,8 @@
       <c r="AC228" s="3"/>
     </row>
     <row r="229" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A229" s="11"/>
-      <c r="B229" s="10">
+      <c r="A229" s="10"/>
+      <c r="B229" s="9">
         <v>18034</v>
       </c>
       <c r="C229" s="4">
@@ -40171,10 +40185,10 @@
       <c r="AC229" s="3"/>
     </row>
     <row r="230" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A230" s="11" t="s">
+      <c r="A230" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B230" s="10">
+      <c r="B230" s="9">
         <v>19001</v>
       </c>
       <c r="C230" s="4">
@@ -40223,10 +40237,10 @@
       <c r="AC230" s="3"/>
     </row>
     <row r="231" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A231" s="11" t="s">
+      <c r="A231" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B231" s="10">
+      <c r="B231" s="9">
         <v>19002</v>
       </c>
       <c r="C231" s="4">
@@ -40275,10 +40289,10 @@
       <c r="AC231" s="3"/>
     </row>
     <row r="232" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A232" s="11" t="s">
+      <c r="A232" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B232" s="10">
+      <c r="B232" s="9">
         <v>19003</v>
       </c>
       <c r="C232" s="4">
@@ -40327,8 +40341,8 @@
       <c r="AC232" s="3"/>
     </row>
     <row r="233" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A233" s="11"/>
-      <c r="B233" s="10">
+      <c r="A233" s="10"/>
+      <c r="B233" s="9">
         <v>19004</v>
       </c>
       <c r="C233" s="4">
@@ -40377,8 +40391,8 @@
       <c r="AC233" s="3"/>
     </row>
     <row r="234" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A234" s="11"/>
-      <c r="B234" s="10">
+      <c r="A234" s="10"/>
+      <c r="B234" s="9">
         <v>19005</v>
       </c>
       <c r="C234" s="4">
@@ -40427,8 +40441,8 @@
       <c r="AC234" s="3"/>
     </row>
     <row r="235" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A235" s="11"/>
-      <c r="B235" s="10">
+      <c r="A235" s="10"/>
+      <c r="B235" s="9">
         <v>19006</v>
       </c>
       <c r="C235" s="4">
@@ -40477,8 +40491,8 @@
       <c r="AC235" s="3"/>
     </row>
     <row r="236" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A236" s="11"/>
-      <c r="B236" s="10">
+      <c r="A236" s="10"/>
+      <c r="B236" s="9">
         <v>19007</v>
       </c>
       <c r="C236" s="4">
@@ -40527,8 +40541,8 @@
       <c r="AC236" s="3"/>
     </row>
     <row r="237" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A237" s="11"/>
-      <c r="B237" s="10">
+      <c r="A237" s="10"/>
+      <c r="B237" s="9">
         <v>19008</v>
       </c>
       <c r="C237" s="4">
@@ -40577,8 +40591,8 @@
       <c r="AC237" s="3"/>
     </row>
     <row r="238" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A238" s="11"/>
-      <c r="B238" s="10">
+      <c r="A238" s="10"/>
+      <c r="B238" s="9">
         <v>19009</v>
       </c>
       <c r="C238" s="4">
@@ -40627,8 +40641,8 @@
       <c r="AC238" s="3"/>
     </row>
     <row r="239" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A239" s="11"/>
-      <c r="B239" s="10">
+      <c r="A239" s="10"/>
+      <c r="B239" s="9">
         <v>19010</v>
       </c>
       <c r="C239" s="4">
@@ -40677,8 +40691,8 @@
       <c r="AC239" s="3"/>
     </row>
     <row r="240" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A240" s="11"/>
-      <c r="B240" s="10">
+      <c r="A240" s="10"/>
+      <c r="B240" s="9">
         <v>19011</v>
       </c>
       <c r="C240" s="4">
@@ -40727,8 +40741,8 @@
       <c r="AC240" s="3"/>
     </row>
     <row r="241" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A241" s="11"/>
-      <c r="B241" s="10">
+      <c r="A241" s="10"/>
+      <c r="B241" s="9">
         <v>19012</v>
       </c>
       <c r="C241" s="4">
@@ -40777,8 +40791,8 @@
       <c r="AC241" s="3"/>
     </row>
     <row r="242" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A242" s="11"/>
-      <c r="B242" s="10">
+      <c r="A242" s="10"/>
+      <c r="B242" s="9">
         <v>19013</v>
       </c>
       <c r="C242" s="4">
@@ -40827,8 +40841,8 @@
       <c r="AC242" s="3"/>
     </row>
     <row r="243" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A243" s="11"/>
-      <c r="B243" s="10">
+      <c r="A243" s="10"/>
+      <c r="B243" s="9">
         <v>19014</v>
       </c>
       <c r="C243" s="4">
@@ -40877,8 +40891,8 @@
       <c r="AC243" s="3"/>
     </row>
     <row r="244" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A244" s="11"/>
-      <c r="B244" s="10">
+      <c r="A244" s="10"/>
+      <c r="B244" s="9">
         <v>19015</v>
       </c>
       <c r="C244" s="4">
@@ -40927,8 +40941,8 @@
       <c r="AC244" s="3"/>
     </row>
     <row r="245" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A245" s="11"/>
-      <c r="B245" s="10">
+      <c r="A245" s="10"/>
+      <c r="B245" s="9">
         <v>19016</v>
       </c>
       <c r="C245" s="4">
@@ -40977,8 +40991,8 @@
       <c r="AC245" s="3"/>
     </row>
     <row r="246" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A246" s="11"/>
-      <c r="B246" s="10">
+      <c r="A246" s="10"/>
+      <c r="B246" s="9">
         <v>19017</v>
       </c>
       <c r="C246" s="4">
@@ -41027,8 +41041,8 @@
       <c r="AC246" s="3"/>
     </row>
     <row r="247" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A247" s="11"/>
-      <c r="B247" s="10">
+      <c r="A247" s="10"/>
+      <c r="B247" s="9">
         <v>19018</v>
       </c>
       <c r="C247" s="4">
@@ -41077,8 +41091,8 @@
       <c r="AC247" s="3"/>
     </row>
     <row r="248" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A248" s="11"/>
-      <c r="B248" s="10">
+      <c r="A248" s="10"/>
+      <c r="B248" s="9">
         <v>19019</v>
       </c>
       <c r="C248" s="4">
@@ -41127,8 +41141,8 @@
       <c r="AC248" s="3"/>
     </row>
     <row r="249" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A249" s="11"/>
-      <c r="B249" s="10">
+      <c r="A249" s="10"/>
+      <c r="B249" s="9">
         <v>19020</v>
       </c>
       <c r="C249" s="4">
@@ -41177,8 +41191,8 @@
       <c r="AC249" s="3"/>
     </row>
     <row r="250" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A250" s="11"/>
-      <c r="B250" s="10">
+      <c r="A250" s="10"/>
+      <c r="B250" s="9">
         <v>19021</v>
       </c>
       <c r="C250" s="4">
@@ -41227,8 +41241,8 @@
       <c r="AC250" s="3"/>
     </row>
     <row r="251" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A251" s="11"/>
-      <c r="B251" s="10">
+      <c r="A251" s="10"/>
+      <c r="B251" s="9">
         <v>19022</v>
       </c>
       <c r="C251" s="4">
@@ -41277,8 +41291,8 @@
       <c r="AC251" s="3"/>
     </row>
     <row r="252" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A252" s="11"/>
-      <c r="B252" s="10">
+      <c r="A252" s="10"/>
+      <c r="B252" s="9">
         <v>19023</v>
       </c>
       <c r="C252" s="4">
@@ -41327,8 +41341,8 @@
       <c r="AC252" s="3"/>
     </row>
     <row r="253" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A253" s="11"/>
-      <c r="B253" s="10">
+      <c r="A253" s="10"/>
+      <c r="B253" s="9">
         <v>19024</v>
       </c>
       <c r="C253" s="4">
@@ -41377,8 +41391,8 @@
       <c r="AC253" s="3"/>
     </row>
     <row r="254" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A254" s="11"/>
-      <c r="B254" s="10">
+      <c r="A254" s="10"/>
+      <c r="B254" s="9">
         <v>19025</v>
       </c>
       <c r="C254" s="4">
@@ -41427,8 +41441,8 @@
       <c r="AC254" s="3"/>
     </row>
     <row r="255" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A255" s="11"/>
-      <c r="B255" s="10">
+      <c r="A255" s="10"/>
+      <c r="B255" s="9">
         <v>19026</v>
       </c>
       <c r="C255" s="4">
@@ -41477,8 +41491,8 @@
       <c r="AC255" s="3"/>
     </row>
     <row r="256" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A256" s="11"/>
-      <c r="B256" s="10">
+      <c r="A256" s="10"/>
+      <c r="B256" s="9">
         <v>19027</v>
       </c>
       <c r="C256" s="4">
@@ -41527,10 +41541,10 @@
       <c r="AC256" s="3"/>
     </row>
     <row r="257" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A257" s="11" t="s">
+      <c r="A257" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B257" s="10">
+      <c r="B257" s="9">
         <v>20001</v>
       </c>
       <c r="C257" s="4">
@@ -41577,10 +41591,10 @@
       <c r="AC257" s="3"/>
     </row>
     <row r="258" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A258" s="11" t="s">
+      <c r="A258" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B258" s="10">
+      <c r="B258" s="9">
         <v>20002</v>
       </c>
       <c r="C258" s="4">
@@ -41627,8 +41641,8 @@
       <c r="AC258" s="3"/>
     </row>
     <row r="259" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A259" s="11"/>
-      <c r="B259" s="10">
+      <c r="A259" s="10"/>
+      <c r="B259" s="9">
         <v>20003</v>
       </c>
       <c r="C259" s="4">
@@ -41675,8 +41689,8 @@
       <c r="AC259" s="3"/>
     </row>
     <row r="260" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A260" s="11"/>
-      <c r="B260" s="10">
+      <c r="A260" s="10"/>
+      <c r="B260" s="9">
         <v>20004</v>
       </c>
       <c r="C260" s="4">
@@ -41723,8 +41737,8 @@
       <c r="AC260" s="3"/>
     </row>
     <row r="261" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A261" s="11"/>
-      <c r="B261" s="10">
+      <c r="A261" s="10"/>
+      <c r="B261" s="9">
         <v>20005</v>
       </c>
       <c r="C261" s="4">
@@ -41771,8 +41785,8 @@
       <c r="AC261" s="3"/>
     </row>
     <row r="262" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A262" s="11"/>
-      <c r="B262" s="10">
+      <c r="A262" s="10"/>
+      <c r="B262" s="9">
         <v>20006</v>
       </c>
       <c r="C262" s="4">
@@ -41819,8 +41833,8 @@
       <c r="AC262" s="3"/>
     </row>
     <row r="263" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A263" s="11"/>
-      <c r="B263" s="10">
+      <c r="A263" s="10"/>
+      <c r="B263" s="9">
         <v>20007</v>
       </c>
       <c r="C263" s="4">
@@ -41867,8 +41881,8 @@
       <c r="AC263" s="3"/>
     </row>
     <row r="264" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A264" s="11"/>
-      <c r="B264" s="10">
+      <c r="A264" s="10"/>
+      <c r="B264" s="9">
         <v>20008</v>
       </c>
       <c r="C264" s="4">
@@ -41915,8 +41929,8 @@
       <c r="AC264" s="3"/>
     </row>
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A265" s="11"/>
-      <c r="B265" s="10">
+      <c r="A265" s="10"/>
+      <c r="B265" s="9">
         <v>20009</v>
       </c>
       <c r="C265" s="4">
@@ -41963,8 +41977,8 @@
       <c r="AC265" s="3"/>
     </row>
     <row r="266" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A266" s="11"/>
-      <c r="B266" s="10">
+      <c r="A266" s="10"/>
+      <c r="B266" s="9">
         <v>20010</v>
       </c>
       <c r="C266" s="4">
@@ -42011,8 +42025,8 @@
       <c r="AC266" s="3"/>
     </row>
     <row r="267" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A267" s="11"/>
-      <c r="B267" s="10">
+      <c r="A267" s="10"/>
+      <c r="B267" s="9">
         <v>20011</v>
       </c>
       <c r="C267" s="4">
@@ -42059,8 +42073,8 @@
       <c r="AC267" s="3"/>
     </row>
     <row r="268" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A268" s="11"/>
-      <c r="B268" s="10">
+      <c r="A268" s="10"/>
+      <c r="B268" s="9">
         <v>20012</v>
       </c>
       <c r="C268" s="4">
@@ -42107,8 +42121,8 @@
       <c r="AC268" s="3"/>
     </row>
     <row r="269" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A269" s="11"/>
-      <c r="B269" s="10">
+      <c r="A269" s="10"/>
+      <c r="B269" s="9">
         <v>20013</v>
       </c>
       <c r="C269" s="4">
@@ -42155,8 +42169,8 @@
       <c r="AC269" s="3"/>
     </row>
     <row r="270" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A270" s="11"/>
-      <c r="B270" s="10">
+      <c r="A270" s="10"/>
+      <c r="B270" s="9">
         <v>20014</v>
       </c>
       <c r="C270" s="4">
@@ -42203,8 +42217,8 @@
       <c r="AC270" s="3"/>
     </row>
     <row r="271" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A271" s="11"/>
-      <c r="B271" s="10">
+      <c r="A271" s="10"/>
+      <c r="B271" s="9">
         <v>20015</v>
       </c>
       <c r="C271" s="4">
@@ -42251,8 +42265,8 @@
       <c r="AC271" s="3"/>
     </row>
     <row r="272" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A272" s="11"/>
-      <c r="B272" s="10">
+      <c r="A272" s="10"/>
+      <c r="B272" s="9">
         <v>20016</v>
       </c>
       <c r="C272" s="4">
@@ -42299,10 +42313,10 @@
       <c r="AC272" s="3"/>
     </row>
     <row r="273" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A273" s="11" t="s">
+      <c r="A273" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B273" s="10">
+      <c r="B273" s="9">
         <v>22001</v>
       </c>
       <c r="C273" s="4">
@@ -42349,8 +42363,8 @@
       <c r="AC273" s="3"/>
     </row>
     <row r="274" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A274" s="11"/>
-      <c r="B274" s="10">
+      <c r="A274" s="10"/>
+      <c r="B274" s="9">
         <v>22002</v>
       </c>
       <c r="C274" s="4">
@@ -42397,8 +42411,8 @@
       <c r="AC274" s="3"/>
     </row>
     <row r="275" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A275" s="11"/>
-      <c r="B275" s="10">
+      <c r="A275" s="10"/>
+      <c r="B275" s="9">
         <v>22003</v>
       </c>
       <c r="C275" s="4">
@@ -42445,8 +42459,8 @@
       <c r="AC275" s="3"/>
     </row>
     <row r="276" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A276" s="11"/>
-      <c r="B276" s="10">
+      <c r="A276" s="10"/>
+      <c r="B276" s="9">
         <v>22004</v>
       </c>
       <c r="C276" s="4">
@@ -42493,8 +42507,8 @@
       <c r="AC276" s="3"/>
     </row>
     <row r="277" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A277" s="11"/>
-      <c r="B277" s="10">
+      <c r="A277" s="10"/>
+      <c r="B277" s="9">
         <v>22005</v>
       </c>
       <c r="C277" s="4">
@@ -42541,8 +42555,8 @@
       <c r="AC277" s="3"/>
     </row>
     <row r="278" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A278" s="11"/>
-      <c r="B278" s="10">
+      <c r="A278" s="10"/>
+      <c r="B278" s="9">
         <v>22006</v>
       </c>
       <c r="C278" s="4">
@@ -42589,8 +42603,8 @@
       <c r="AC278" s="3"/>
     </row>
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A279" s="11"/>
-      <c r="B279" s="10">
+      <c r="A279" s="10"/>
+      <c r="B279" s="9">
         <v>22007</v>
       </c>
       <c r="C279" s="4">
@@ -42637,8 +42651,8 @@
       <c r="AC279" s="3"/>
     </row>
     <row r="280" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A280" s="11"/>
-      <c r="B280" s="10">
+      <c r="A280" s="10"/>
+      <c r="B280" s="9">
         <v>22008</v>
       </c>
       <c r="C280" s="4">
@@ -42685,8 +42699,8 @@
       <c r="AC280" s="3"/>
     </row>
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A281" s="11"/>
-      <c r="B281" s="10">
+      <c r="A281" s="10"/>
+      <c r="B281" s="9">
         <v>22009</v>
       </c>
       <c r="C281" s="4">
@@ -42733,8 +42747,8 @@
       <c r="AC281" s="3"/>
     </row>
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A282" s="11"/>
-      <c r="B282" s="10">
+      <c r="A282" s="10"/>
+      <c r="B282" s="9">
         <v>22010</v>
       </c>
       <c r="C282" s="4">
@@ -42781,8 +42795,8 @@
       <c r="AC282" s="3"/>
     </row>
     <row r="283" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A283" s="11"/>
-      <c r="B283" s="10">
+      <c r="A283" s="10"/>
+      <c r="B283" s="9">
         <v>22011</v>
       </c>
       <c r="C283" s="4">
@@ -42829,8 +42843,8 @@
       <c r="AC283" s="3"/>
     </row>
     <row r="284" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A284" s="11"/>
-      <c r="B284" s="10">
+      <c r="A284" s="10"/>
+      <c r="B284" s="9">
         <v>22012</v>
       </c>
       <c r="C284" s="4">
@@ -42877,8 +42891,8 @@
       <c r="AC284" s="3"/>
     </row>
     <row r="285" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A285" s="11"/>
-      <c r="B285" s="10">
+      <c r="A285" s="10"/>
+      <c r="B285" s="9">
         <v>22013</v>
       </c>
       <c r="C285" s="4">
@@ -42925,8 +42939,8 @@
       <c r="AC285" s="3"/>
     </row>
     <row r="286" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A286" s="11"/>
-      <c r="B286" s="10">
+      <c r="A286" s="10"/>
+      <c r="B286" s="9">
         <v>22014</v>
       </c>
       <c r="C286" s="4">
@@ -42973,8 +42987,8 @@
       <c r="AC286" s="3"/>
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A287" s="11"/>
-      <c r="B287" s="10">
+      <c r="A287" s="10"/>
+      <c r="B287" s="9">
         <v>22015</v>
       </c>
       <c r="C287" s="4">
@@ -43021,8 +43035,8 @@
       <c r="AC287" s="3"/>
     </row>
     <row r="288" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A288" s="11"/>
-      <c r="B288" s="10">
+      <c r="A288" s="10"/>
+      <c r="B288" s="9">
         <v>22016</v>
       </c>
       <c r="C288" s="4">
@@ -43069,8 +43083,8 @@
       <c r="AC288" s="3"/>
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A289" s="11"/>
-      <c r="B289" s="10">
+      <c r="A289" s="10"/>
+      <c r="B289" s="9">
         <v>22017</v>
       </c>
       <c r="C289" s="4">
@@ -43117,8 +43131,8 @@
       <c r="AC289" s="3"/>
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A290" s="11"/>
-      <c r="B290" s="10">
+      <c r="A290" s="10"/>
+      <c r="B290" s="9">
         <v>22018</v>
       </c>
       <c r="C290" s="4">
@@ -43165,8 +43179,8 @@
       <c r="AC290" s="3"/>
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A291" s="11"/>
-      <c r="B291" s="10">
+      <c r="A291" s="10"/>
+      <c r="B291" s="9">
         <v>22019</v>
       </c>
       <c r="C291" s="4">
@@ -43213,8 +43227,8 @@
       <c r="AC291" s="3"/>
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A292" s="11"/>
-      <c r="B292" s="10">
+      <c r="A292" s="10"/>
+      <c r="B292" s="9">
         <v>22020</v>
       </c>
       <c r="C292" s="4">
@@ -43261,8 +43275,8 @@
       <c r="AC292" s="3"/>
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A293" s="11"/>
-      <c r="B293" s="10">
+      <c r="A293" s="10"/>
+      <c r="B293" s="9">
         <v>22021</v>
       </c>
       <c r="C293" s="4">
@@ -43309,8 +43323,8 @@
       <c r="AC293" s="3"/>
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A294" s="11"/>
-      <c r="B294" s="10">
+      <c r="A294" s="10"/>
+      <c r="B294" s="9">
         <v>22022</v>
       </c>
       <c r="C294" s="4">
@@ -43357,8 +43371,8 @@
       <c r="AC294" s="3"/>
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A295" s="11"/>
-      <c r="B295" s="10">
+      <c r="A295" s="10"/>
+      <c r="B295" s="9">
         <v>22023</v>
       </c>
       <c r="C295" s="4">
@@ -43405,8 +43419,8 @@
       <c r="AC295" s="3"/>
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A296" s="11"/>
-      <c r="B296" s="10">
+      <c r="A296" s="10"/>
+      <c r="B296" s="9">
         <v>22024</v>
       </c>
       <c r="C296" s="4">
@@ -43453,8 +43467,8 @@
       <c r="AC296" s="3"/>
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A297" s="11"/>
-      <c r="B297" s="10">
+      <c r="A297" s="10"/>
+      <c r="B297" s="9">
         <v>22025</v>
       </c>
       <c r="C297" s="4">
@@ -43501,10 +43515,10 @@
       <c r="AC297" s="3"/>
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A298" s="11" t="s">
+      <c r="A298" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B298" s="10">
+      <c r="B298" s="9">
         <v>23001</v>
       </c>
       <c r="C298" s="4">
@@ -43600,7 +43614,7 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1">
       <c r="A300" s="3"/>
-      <c r="B300" s="10">
+      <c r="B300" s="9">
         <v>23003</v>
       </c>
       <c r="C300" s="4">
@@ -43696,7 +43710,7 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1">
       <c r="A302" s="3"/>
-      <c r="B302" s="10">
+      <c r="B302" s="9">
         <v>23005</v>
       </c>
       <c r="C302" s="4">
@@ -43792,7 +43806,7 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1">
       <c r="A304" s="3"/>
-      <c r="B304" s="10">
+      <c r="B304" s="9">
         <v>23007</v>
       </c>
       <c r="C304" s="4">
@@ -43888,7 +43902,7 @@
     </row>
     <row r="306" spans="1:29" ht="15.75" customHeight="1">
       <c r="A306" s="3"/>
-      <c r="B306" s="10">
+      <c r="B306" s="9">
         <v>23009</v>
       </c>
       <c r="C306" s="4">
@@ -43984,7 +43998,7 @@
     </row>
     <row r="308" spans="1:29" ht="15.75" customHeight="1">
       <c r="A308" s="3"/>
-      <c r="B308" s="10">
+      <c r="B308" s="9">
         <v>23011</v>
       </c>
       <c r="C308" s="4">
@@ -44080,7 +44094,7 @@
     </row>
     <row r="310" spans="1:29" ht="15.75" customHeight="1">
       <c r="A310" s="3"/>
-      <c r="B310" s="10">
+      <c r="B310" s="9">
         <v>23013</v>
       </c>
       <c r="C310" s="4">
@@ -44176,7 +44190,7 @@
     </row>
     <row r="312" spans="1:29" ht="15.75" customHeight="1">
       <c r="A312" s="3"/>
-      <c r="B312" s="10">
+      <c r="B312" s="9">
         <v>23015</v>
       </c>
       <c r="C312" s="4">
@@ -44272,7 +44286,7 @@
     </row>
     <row r="314" spans="1:29" ht="15.75" customHeight="1">
       <c r="A314" s="3"/>
-      <c r="B314" s="10">
+      <c r="B314" s="9">
         <v>23017</v>
       </c>
       <c r="C314" s="4">
@@ -44368,7 +44382,7 @@
     </row>
     <row r="316" spans="1:29" ht="15.75" customHeight="1">
       <c r="A316" s="3"/>
-      <c r="B316" s="10">
+      <c r="B316" s="9">
         <v>23019</v>
       </c>
       <c r="C316" s="4">
@@ -44416,7 +44430,7 @@
     </row>
     <row r="317" spans="1:29" ht="15.75" customHeight="1">
       <c r="A317" s="3"/>
-      <c r="B317" s="10">
+      <c r="B317" s="9">
         <v>23020</v>
       </c>
       <c r="C317" s="4">
@@ -44512,7 +44526,7 @@
     </row>
     <row r="319" spans="1:29" ht="15.75" customHeight="1">
       <c r="A319" s="3"/>
-      <c r="B319" s="10">
+      <c r="B319" s="9">
         <v>23022</v>
       </c>
       <c r="C319" s="4">
@@ -44560,7 +44574,7 @@
     </row>
     <row r="320" spans="1:29" ht="15.75" customHeight="1">
       <c r="A320" s="3"/>
-      <c r="B320" s="10">
+      <c r="B320" s="9">
         <v>23023</v>
       </c>
       <c r="C320" s="4">
@@ -44656,7 +44670,7 @@
     </row>
     <row r="322" spans="1:29" ht="15.75" customHeight="1">
       <c r="A322" s="3"/>
-      <c r="B322" s="10">
+      <c r="B322" s="9">
         <v>23025</v>
       </c>
       <c r="C322" s="4">
@@ -44703,10 +44717,10 @@
       <c r="AC322" s="3"/>
     </row>
     <row r="323" spans="1:29" ht="15.75" customHeight="1">
-      <c r="A323" s="11" t="s">
+      <c r="A323" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B323" s="10">
+      <c r="B323" s="9">
         <v>24001</v>
       </c>
       <c r="C323" s="4">
@@ -44802,7 +44816,7 @@
     </row>
     <row r="325" spans="1:29" ht="15.75" customHeight="1">
       <c r="A325" s="3"/>
-      <c r="B325" s="10">
+      <c r="B325" s="9">
         <v>24003</v>
       </c>
       <c r="C325" s="4">
@@ -44898,7 +44912,7 @@
     </row>
     <row r="327" spans="1:29" ht="15.75" customHeight="1">
       <c r="A327" s="3"/>
-      <c r="B327" s="10">
+      <c r="B327" s="9">
         <v>24005</v>
       </c>
       <c r="C327" s="4">
@@ -44994,7 +45008,7 @@
     </row>
     <row r="329" spans="1:29" ht="15.75" customHeight="1">
       <c r="A329" s="3"/>
-      <c r="B329" s="10">
+      <c r="B329" s="9">
         <v>24007</v>
       </c>
       <c r="C329" s="4">
@@ -45090,7 +45104,7 @@
     </row>
     <row r="331" spans="1:29" ht="15.75" customHeight="1">
       <c r="A331" s="3"/>
-      <c r="B331" s="10">
+      <c r="B331" s="9">
         <v>24009</v>
       </c>
       <c r="C331" s="4">
@@ -45186,7 +45200,7 @@
     </row>
     <row r="333" spans="1:29" ht="15.75" customHeight="1">
       <c r="A333" s="3"/>
-      <c r="B333" s="10">
+      <c r="B333" s="9">
         <v>24011</v>
       </c>
       <c r="C333" s="4">
@@ -45282,7 +45296,7 @@
     </row>
     <row r="335" spans="1:29" ht="15.75" customHeight="1">
       <c r="A335" s="3"/>
-      <c r="B335" s="10">
+      <c r="B335" s="9">
         <v>24013</v>
       </c>
       <c r="C335" s="4">
@@ -45378,7 +45392,7 @@
     </row>
     <row r="337" spans="1:29" ht="15.75" customHeight="1">
       <c r="A337" s="3"/>
-      <c r="B337" s="10">
+      <c r="B337" s="9">
         <v>24015</v>
       </c>
       <c r="C337" s="4">
@@ -45474,7 +45488,7 @@
     </row>
     <row r="339" spans="1:29" ht="15.75" customHeight="1">
       <c r="A339" s="3"/>
-      <c r="B339" s="10">
+      <c r="B339" s="9">
         <v>24017</v>
       </c>
       <c r="C339" s="4">
@@ -45570,7 +45584,7 @@
     </row>
     <row r="341" spans="1:29" ht="15.75" customHeight="1">
       <c r="A341" s="3"/>
-      <c r="B341" s="10">
+      <c r="B341" s="9">
         <v>24019</v>
       </c>
       <c r="C341" s="4">
@@ -45666,7 +45680,7 @@
     </row>
     <row r="343" spans="1:29" ht="15.75" customHeight="1">
       <c r="A343" s="3"/>
-      <c r="B343" s="10">
+      <c r="B343" s="9">
         <v>24021</v>
       </c>
       <c r="C343" s="4">
@@ -45762,7 +45776,7 @@
     </row>
     <row r="345" spans="1:29" ht="15.75" customHeight="1">
       <c r="A345" s="3"/>
-      <c r="B345" s="10">
+      <c r="B345" s="9">
         <v>24023</v>
       </c>
       <c r="C345" s="4">
@@ -45858,7 +45872,7 @@
     </row>
     <row r="347" spans="1:29" ht="15.75" customHeight="1">
       <c r="A347" s="3"/>
-      <c r="B347" s="10">
+      <c r="B347" s="9">
         <v>24025</v>
       </c>
       <c r="C347" s="4">

--- a/PublicTools/econfigs/15-magicLevelup.xlsx
+++ b/PublicTools/econfigs/15-magicLevelup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/ws.localized/arpgfun/PublicTools/econfigs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAABF1CD-42DC-2149-A90E-52FB65B9BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE3902C-3018-F346-9AAB-602B8AC6CD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,7 +353,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -28604,10 +28604,10 @@
   <dimension ref="A1:AC347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="H179" sqref="H179:H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -28819,7 +28819,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="8">
-        <v>2000</v>
+        <v>-4000</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -28827,7 +28827,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="str">
         <f t="shared" ref="M4:M18" si="0">"伤害倍数"&amp;(1+H4/10000)</f>
-        <v>伤害倍数1.2</v>
+        <v>伤害倍数0.6</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -28869,7 +28869,7 @@
         <v>22</v>
       </c>
       <c r="H5" s="8">
-        <v>4000</v>
+        <v>-3750</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -28877,7 +28877,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数1.4</v>
+        <v>伤害倍数0.625</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -28917,7 +28917,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="8">
-        <v>6000</v>
+        <v>-3500</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -28925,7 +28925,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数1.6</v>
+        <v>伤害倍数0.65</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -28965,7 +28965,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="8">
-        <v>8000</v>
+        <v>-3250</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -28973,7 +28973,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数1.8</v>
+        <v>伤害倍数0.675</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -29013,7 +29013,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="8">
-        <v>10000</v>
+        <v>-3000</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -29021,7 +29021,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数2</v>
+        <v>伤害倍数0.7</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -29061,7 +29061,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="8">
-        <v>12000</v>
+        <v>-2750</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -29069,7 +29069,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数2.2</v>
+        <v>伤害倍数0.725</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -29109,7 +29109,7 @@
         <v>32</v>
       </c>
       <c r="H10" s="8">
-        <v>14000</v>
+        <v>-2500</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -29117,7 +29117,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数2.4</v>
+        <v>伤害倍数0.75</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -29157,7 +29157,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="8">
-        <v>16000</v>
+        <v>-2250</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -29165,7 +29165,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数2.6</v>
+        <v>伤害倍数0.775</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -29205,7 +29205,7 @@
         <v>36</v>
       </c>
       <c r="H12" s="8">
-        <v>18000</v>
+        <v>-2000</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -29213,7 +29213,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数2.8</v>
+        <v>伤害倍数0.8</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -29253,7 +29253,7 @@
         <v>38</v>
       </c>
       <c r="H13" s="8">
-        <v>20000</v>
+        <v>-1750</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -29261,7 +29261,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数3</v>
+        <v>伤害倍数0.825</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -29301,7 +29301,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="8">
-        <v>22000</v>
+        <v>-1500</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -29309,7 +29309,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数3.2</v>
+        <v>伤害倍数0.85</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -29349,7 +29349,7 @@
         <v>42</v>
       </c>
       <c r="H15" s="8">
-        <v>24000</v>
+        <v>-1250</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -29357,7 +29357,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数3.4</v>
+        <v>伤害倍数0.875</v>
       </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -29397,7 +29397,7 @@
         <v>44</v>
       </c>
       <c r="H16" s="8">
-        <v>26000</v>
+        <v>-1000</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -29405,7 +29405,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数3.6</v>
+        <v>伤害倍数0.9</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -29445,7 +29445,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="8">
-        <v>28000</v>
+        <v>-750</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -29453,7 +29453,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数3.8</v>
+        <v>伤害倍数0.925</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -29493,7 +29493,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="8">
-        <v>30000</v>
+        <v>-500</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -29501,7 +29501,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>伤害倍数4</v>
+        <v>伤害倍数0.95</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -31233,13 +31233,13 @@
         <v>12000</v>
       </c>
       <c r="J53" s="4">
-        <v>3000</v>
+        <v>3150</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级5持续时间12s成功概率30%</v>
+        <v>最大控制等级5持续时间12s成功概率31.5%</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -31287,13 +31287,13 @@
         <v>14000</v>
       </c>
       <c r="J54" s="4">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级9持续时间14s成功概率30%</v>
+        <v>最大控制等级9持续时间14s成功概率33%</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -31339,13 +31339,13 @@
         <v>16000</v>
       </c>
       <c r="J55" s="4">
-        <v>3000</v>
+        <v>3450</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级13持续时间16s成功概率30%</v>
+        <v>最大控制等级13持续时间16s成功概率34.5%</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -31391,13 +31391,13 @@
         <v>18000</v>
       </c>
       <c r="J56" s="4">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级17持续时间18s成功概率30%</v>
+        <v>最大控制等级17持续时间18s成功概率36%</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -31443,13 +31443,13 @@
         <v>20000</v>
       </c>
       <c r="J57" s="4">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级21持续时间20s成功概率30%</v>
+        <v>最大控制等级21持续时间20s成功概率37.5%</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -31495,13 +31495,13 @@
         <v>22000</v>
       </c>
       <c r="J58" s="4">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级25持续时间22s成功概率30%</v>
+        <v>最大控制等级25持续时间22s成功概率39%</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -31547,13 +31547,13 @@
         <v>24000</v>
       </c>
       <c r="J59" s="4">
-        <v>3000</v>
+        <v>4050</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级29持续时间24s成功概率30%</v>
+        <v>最大控制等级29持续时间24s成功概率40.5%</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -31599,13 +31599,13 @@
         <v>26000</v>
       </c>
       <c r="J60" s="4">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级33持续时间26s成功概率30%</v>
+        <v>最大控制等级33持续时间26s成功概率42%</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -31651,13 +31651,13 @@
         <v>28000</v>
       </c>
       <c r="J61" s="4">
-        <v>3000</v>
+        <v>4350</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级37持续时间28s成功概率30%</v>
+        <v>最大控制等级37持续时间28s成功概率43.5%</v>
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -31703,13 +31703,13 @@
         <v>30000</v>
       </c>
       <c r="J62" s="4">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级41持续时间30s成功概率30%</v>
+        <v>最大控制等级41持续时间30s成功概率45%</v>
       </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -31755,13 +31755,13 @@
         <v>32000</v>
       </c>
       <c r="J63" s="4">
-        <v>3000</v>
+        <v>4650</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级45持续时间32s成功概率30%</v>
+        <v>最大控制等级45持续时间32s成功概率46.5%</v>
       </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -31807,13 +31807,13 @@
         <v>34000</v>
       </c>
       <c r="J64" s="4">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级49持续时间34s成功概率30%</v>
+        <v>最大控制等级49持续时间34s成功概率48%</v>
       </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -31859,13 +31859,13 @@
         <v>36000</v>
       </c>
       <c r="J65" s="4">
-        <v>3000</v>
+        <v>4950</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级53持续时间36s成功概率30%</v>
+        <v>最大控制等级53持续时间36s成功概率49.5%</v>
       </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -31911,13 +31911,13 @@
         <v>38000</v>
       </c>
       <c r="J66" s="4">
-        <v>3000</v>
+        <v>5100</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级57持续时间38s成功概率30%</v>
+        <v>最大控制等级57持续时间38s成功概率51%</v>
       </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -31963,13 +31963,13 @@
         <v>40000</v>
       </c>
       <c r="J67" s="4">
-        <v>3000</v>
+        <v>5250</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级61持续时间40s成功概率30%</v>
+        <v>最大控制等级61持续时间40s成功概率52.5%</v>
       </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -32015,13 +32015,13 @@
         <v>42000</v>
       </c>
       <c r="J68" s="4">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级65持续时间42s成功概率30%</v>
+        <v>最大控制等级65持续时间42s成功概率54%</v>
       </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -32067,13 +32067,13 @@
         <v>44000</v>
       </c>
       <c r="J69" s="4">
-        <v>3000</v>
+        <v>5550</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级69持续时间44s成功概率30%</v>
+        <v>最大控制等级69持续时间44s成功概率55.5%</v>
       </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -32119,13 +32119,13 @@
         <v>46000</v>
       </c>
       <c r="J70" s="4">
-        <v>3000</v>
+        <v>5700</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级73持续时间46s成功概率30%</v>
+        <v>最大控制等级73持续时间46s成功概率57%</v>
       </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -32171,13 +32171,13 @@
         <v>48000</v>
       </c>
       <c r="J71" s="4">
-        <v>3000</v>
+        <v>5850</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级77持续时间48s成功概率30%</v>
+        <v>最大控制等级77持续时间48s成功概率58.5%</v>
       </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -32223,13 +32223,13 @@
         <v>50000</v>
       </c>
       <c r="J72" s="4">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级81持续时间50s成功概率30%</v>
+        <v>最大控制等级81持续时间50s成功概率60%</v>
       </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -32275,13 +32275,13 @@
         <v>52000</v>
       </c>
       <c r="J73" s="4">
-        <v>3000</v>
+        <v>6150</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级85持续时间52s成功概率30%</v>
+        <v>最大控制等级85持续时间52s成功概率61.5%</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -32327,13 +32327,13 @@
         <v>54000</v>
       </c>
       <c r="J74" s="4">
-        <v>3000</v>
+        <v>6300</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级89持续时间54s成功概率30%</v>
+        <v>最大控制等级89持续时间54s成功概率63%</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -32379,13 +32379,13 @@
         <v>56000</v>
       </c>
       <c r="J75" s="4">
-        <v>3000</v>
+        <v>6450</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>最大控制等级93持续时间56s成功概率30%</v>
+        <v>最大控制等级93持续时间56s成功概率64.5%</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -34083,16 +34083,15 @@
         <v>40</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" ref="H109:H124" si="5">D109*5</f>
-        <v>40</v>
+        <v>-5000</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3" t="str">
-        <f t="shared" ref="M109:M124" si="6">"恢复生命"&amp;H109</f>
-        <v>恢复生命40</v>
+        <f>"恢复生命攻击比例"&amp;1+H109/10000</f>
+        <v>恢复生命攻击比例0.5</v>
       </c>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
@@ -34134,16 +34133,15 @@
         <v>50</v>
       </c>
       <c r="H110" s="3">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <v>-4800</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命70</v>
+        <f>"恢复生命攻击比例"&amp;1+H110/10000</f>
+        <v>恢复生命攻击比例0.52</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -34183,16 +34181,15 @@
         <v>60</v>
       </c>
       <c r="H111" s="3">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <v>-4600</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命100</v>
+        <f t="shared" ref="M111:M124" si="5">"恢复生命攻击比例"&amp;1+H111/10000</f>
+        <v>恢复生命攻击比例0.54</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -34232,16 +34229,15 @@
         <v>70</v>
       </c>
       <c r="H112" s="3">
-        <f t="shared" si="5"/>
-        <v>130</v>
+        <v>-4400</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命130</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.56</v>
       </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
@@ -34281,16 +34277,15 @@
         <v>80</v>
       </c>
       <c r="H113" s="3">
-        <f t="shared" si="5"/>
-        <v>160</v>
+        <v>-4200</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命160</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.58</v>
       </c>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
@@ -34330,16 +34325,15 @@
         <v>90</v>
       </c>
       <c r="H114" s="3">
-        <f t="shared" si="5"/>
-        <v>190</v>
+        <v>-4000</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命190</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.6</v>
       </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -34379,16 +34373,15 @@
         <v>100</v>
       </c>
       <c r="H115" s="3">
-        <f t="shared" si="5"/>
-        <v>220</v>
+        <v>-3800</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命220</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.62</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -34428,16 +34421,15 @@
         <v>110</v>
       </c>
       <c r="H116" s="3">
-        <f t="shared" si="5"/>
-        <v>250</v>
+        <v>-3600</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命250</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.64</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -34477,16 +34469,15 @@
         <v>120</v>
       </c>
       <c r="H117" s="3">
-        <f t="shared" si="5"/>
-        <v>280</v>
+        <v>-3400</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命280</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.66</v>
       </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -34526,16 +34517,15 @@
         <v>130</v>
       </c>
       <c r="H118" s="3">
-        <f t="shared" si="5"/>
-        <v>310</v>
+        <v>-3200</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命310</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.68</v>
       </c>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -34575,16 +34565,15 @@
         <v>140</v>
       </c>
       <c r="H119" s="3">
-        <f t="shared" si="5"/>
-        <v>340</v>
+        <v>-3000</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命340</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.7</v>
       </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
@@ -34624,16 +34613,15 @@
         <v>150</v>
       </c>
       <c r="H120" s="3">
-        <f t="shared" si="5"/>
-        <v>370</v>
+        <v>-2800</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命370</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.72</v>
       </c>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
@@ -34673,16 +34661,15 @@
         <v>160</v>
       </c>
       <c r="H121" s="3">
-        <f t="shared" si="5"/>
-        <v>400</v>
+        <v>-2600</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命400</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.74</v>
       </c>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -34722,16 +34709,15 @@
         <v>170</v>
       </c>
       <c r="H122" s="3">
-        <f t="shared" si="5"/>
-        <v>430</v>
+        <v>-2400</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命430</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.76</v>
       </c>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
@@ -34771,16 +34757,15 @@
         <v>180</v>
       </c>
       <c r="H123" s="3">
-        <f t="shared" si="5"/>
-        <v>460</v>
+        <v>-2200</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命460</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.78</v>
       </c>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
@@ -34820,16 +34805,15 @@
         <v>190</v>
       </c>
       <c r="H124" s="3">
-        <f t="shared" si="5"/>
-        <v>490</v>
+        <v>-2000</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>恢复生命490</v>
+        <f t="shared" si="5"/>
+        <v>恢复生命攻击比例0.8</v>
       </c>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
@@ -34871,7 +34855,7 @@
         <v>30</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" ref="H125:H158" si="7">D125*3</f>
+        <f t="shared" ref="H125:H158" si="6">D125*3</f>
         <v>3</v>
       </c>
       <c r="I125" s="4">
@@ -34883,7 +34867,7 @@
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3" t="str">
-        <f t="shared" ref="M125:M158" si="8">"提高防御力"&amp;H125&amp;"增加魔法躲避"&amp;I125/100&amp;"%"&amp;"持续时间"&amp;J125/1000&amp;"s"</f>
+        <f t="shared" ref="M125:M158" si="7">"提高防御力"&amp;H125&amp;"增加魔法躲避"&amp;I125/100&amp;"%"&amp;"持续时间"&amp;J125/1000&amp;"s"</f>
         <v>提高防御力3增加魔法躲避5%持续时间5s</v>
       </c>
       <c r="N125" s="3"/>
@@ -34926,7 +34910,7 @@
         <v>35</v>
       </c>
       <c r="H126" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="I126" s="4">
@@ -34938,7 +34922,7 @@
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力12增加魔法躲避5.8%持续时间5.5s</v>
       </c>
       <c r="N126" s="3"/>
@@ -34979,7 +34963,7 @@
         <v>40</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="I127" s="4">
@@ -34991,7 +34975,7 @@
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力21增加魔法躲避6.6%持续时间6s</v>
       </c>
       <c r="N127" s="3"/>
@@ -35032,7 +35016,7 @@
         <v>45</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="I128" s="4">
@@ -35044,7 +35028,7 @@
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力30增加魔法躲避7.4%持续时间6.5s</v>
       </c>
       <c r="N128" s="3"/>
@@ -35085,7 +35069,7 @@
         <v>50</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="I129" s="4">
@@ -35097,7 +35081,7 @@
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力39增加魔法躲避8.2%持续时间7s</v>
       </c>
       <c r="N129" s="3"/>
@@ -35138,7 +35122,7 @@
         <v>55</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="I130" s="4">
@@ -35150,7 +35134,7 @@
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力48增加魔法躲避9%持续时间7.5s</v>
       </c>
       <c r="N130" s="3"/>
@@ -35191,7 +35175,7 @@
         <v>60</v>
       </c>
       <c r="H131" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="I131" s="4">
@@ -35203,7 +35187,7 @@
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力57增加魔法躲避9.8%持续时间8s</v>
       </c>
       <c r="N131" s="3"/>
@@ -35244,7 +35228,7 @@
         <v>65</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="I132" s="4">
@@ -35256,7 +35240,7 @@
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力66增加魔法躲避10.6%持续时间8.5s</v>
       </c>
       <c r="N132" s="3"/>
@@ -35297,7 +35281,7 @@
         <v>70</v>
       </c>
       <c r="H133" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="I133" s="4">
@@ -35309,7 +35293,7 @@
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力75增加魔法躲避11.4%持续时间9s</v>
       </c>
       <c r="N133" s="3"/>
@@ -35350,7 +35334,7 @@
         <v>75</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="I134" s="4">
@@ -35362,7 +35346,7 @@
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力84增加魔法躲避12.2%持续时间9.5s</v>
       </c>
       <c r="N134" s="3"/>
@@ -35403,7 +35387,7 @@
         <v>80</v>
       </c>
       <c r="H135" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="I135" s="4">
@@ -35415,7 +35399,7 @@
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力93增加魔法躲避13%持续时间10s</v>
       </c>
       <c r="N135" s="3"/>
@@ -35456,7 +35440,7 @@
         <v>85</v>
       </c>
       <c r="H136" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="I136" s="4">
@@ -35468,7 +35452,7 @@
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力102增加魔法躲避13.8%持续时间10.5s</v>
       </c>
       <c r="N136" s="3"/>
@@ -35509,7 +35493,7 @@
         <v>90</v>
       </c>
       <c r="H137" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="I137" s="4">
@@ -35521,7 +35505,7 @@
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力111增加魔法躲避14.6%持续时间11s</v>
       </c>
       <c r="N137" s="3"/>
@@ -35562,7 +35546,7 @@
         <v>95</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="I138" s="4">
@@ -35574,7 +35558,7 @@
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力120增加魔法躲避15.4%持续时间11.5s</v>
       </c>
       <c r="N138" s="3"/>
@@ -35615,7 +35599,7 @@
         <v>100</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="I139" s="4">
@@ -35627,7 +35611,7 @@
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力129增加魔法躲避16.2%持续时间12s</v>
       </c>
       <c r="N139" s="3"/>
@@ -35668,7 +35652,7 @@
         <v>105</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="I140" s="4">
@@ -35680,7 +35664,7 @@
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力138增加魔法躲避17%持续时间12.5s</v>
       </c>
       <c r="N140" s="3"/>
@@ -35721,7 +35705,7 @@
         <v>110</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="I141" s="4">
@@ -35733,7 +35717,7 @@
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力147增加魔法躲避17.8%持续时间13s</v>
       </c>
       <c r="N141" s="3"/>
@@ -35774,7 +35758,7 @@
         <v>115</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="I142" s="4">
@@ -35786,7 +35770,7 @@
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力156增加魔法躲避18.6%持续时间13.5s</v>
       </c>
       <c r="N142" s="3"/>
@@ -35827,7 +35811,7 @@
         <v>120</v>
       </c>
       <c r="H143" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="I143" s="4">
@@ -35839,7 +35823,7 @@
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力165增加魔法躲避19.4%持续时间14s</v>
       </c>
       <c r="N143" s="3"/>
@@ -35880,7 +35864,7 @@
         <v>125</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
       <c r="I144" s="4">
@@ -35892,7 +35876,7 @@
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力174增加魔法躲避20.2%持续时间14.5s</v>
       </c>
       <c r="N144" s="3"/>
@@ -35933,7 +35917,7 @@
         <v>130</v>
       </c>
       <c r="H145" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="I145" s="4">
@@ -35945,7 +35929,7 @@
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力183增加魔法躲避21%持续时间15s</v>
       </c>
       <c r="N145" s="3"/>
@@ -35986,7 +35970,7 @@
         <v>135</v>
       </c>
       <c r="H146" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="I146" s="4">
@@ -35998,7 +35982,7 @@
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力192增加魔法躲避21.8%持续时间15.5s</v>
       </c>
       <c r="N146" s="3"/>
@@ -36039,7 +36023,7 @@
         <v>140</v>
       </c>
       <c r="H147" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>201</v>
       </c>
       <c r="I147" s="4">
@@ -36051,7 +36035,7 @@
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力201增加魔法躲避22.6%持续时间16s</v>
       </c>
       <c r="N147" s="3"/>
@@ -36092,7 +36076,7 @@
         <v>145</v>
       </c>
       <c r="H148" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="I148" s="4">
@@ -36104,7 +36088,7 @@
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力210增加魔法躲避23.4%持续时间16.5s</v>
       </c>
       <c r="N148" s="3"/>
@@ -36145,7 +36129,7 @@
         <v>150</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
       <c r="I149" s="4">
@@ -36157,7 +36141,7 @@
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力219增加魔法躲避24.2%持续时间17s</v>
       </c>
       <c r="N149" s="3"/>
@@ -36198,7 +36182,7 @@
         <v>155</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>228</v>
       </c>
       <c r="I150" s="4">
@@ -36210,7 +36194,7 @@
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力228增加魔法躲避25%持续时间17.5s</v>
       </c>
       <c r="N150" s="3"/>
@@ -36251,7 +36235,7 @@
         <v>160</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>237</v>
       </c>
       <c r="I151" s="4">
@@ -36263,7 +36247,7 @@
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力237增加魔法躲避25.8%持续时间18s</v>
       </c>
       <c r="N151" s="3"/>
@@ -36304,7 +36288,7 @@
         <v>165</v>
       </c>
       <c r="H152" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>246</v>
       </c>
       <c r="I152" s="4">
@@ -36316,7 +36300,7 @@
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力246增加魔法躲避26.6%持续时间18.5s</v>
       </c>
       <c r="N152" s="3"/>
@@ -36357,7 +36341,7 @@
         <v>170</v>
       </c>
       <c r="H153" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="I153" s="4">
@@ -36369,7 +36353,7 @@
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力255增加魔法躲避27.4%持续时间19s</v>
       </c>
       <c r="N153" s="3"/>
@@ -36410,7 +36394,7 @@
         <v>175</v>
       </c>
       <c r="H154" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>264</v>
       </c>
       <c r="I154" s="4">
@@ -36422,7 +36406,7 @@
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力264增加魔法躲避28.2%持续时间19.5s</v>
       </c>
       <c r="N154" s="3"/>
@@ -36463,7 +36447,7 @@
         <v>180</v>
       </c>
       <c r="H155" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>273</v>
       </c>
       <c r="I155" s="4">
@@ -36475,7 +36459,7 @@
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力273增加魔法躲避29%持续时间20s</v>
       </c>
       <c r="N155" s="3"/>
@@ -36516,7 +36500,7 @@
         <v>185</v>
       </c>
       <c r="H156" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>282</v>
       </c>
       <c r="I156" s="4">
@@ -36528,7 +36512,7 @@
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力282增加魔法躲避29.8%持续时间20.5s</v>
       </c>
       <c r="N156" s="3"/>
@@ -36569,7 +36553,7 @@
         <v>190</v>
       </c>
       <c r="H157" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="I157" s="4">
@@ -36581,7 +36565,7 @@
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力291增加魔法躲避30.6%持续时间21s</v>
       </c>
       <c r="N157" s="3"/>
@@ -36622,7 +36606,7 @@
         <v>195</v>
       </c>
       <c r="H158" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="I158" s="4">
@@ -36634,7 +36618,7 @@
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>提高防御力300增加魔法躲避31.4%持续时间21.5s</v>
       </c>
       <c r="N158" s="3"/>
@@ -36686,7 +36670,7 @@
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3" t="str">
-        <f t="shared" ref="M159:M178" si="9">"持续时间"&amp;I159/1000&amp;"s造成伤害系数"&amp;1+H159/10000</f>
+        <f t="shared" ref="M159:M178" si="8">"持续时间"&amp;I159/1000&amp;"s造成伤害系数"&amp;1+H159/10000</f>
         <v>持续时间3s造成伤害系数0.5</v>
       </c>
       <c r="N159" s="3"/>
@@ -36738,7 +36722,7 @@
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间3.3s造成伤害系数0.55</v>
       </c>
       <c r="N160" s="3"/>
@@ -36788,7 +36772,7 @@
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间3.6s造成伤害系数0.6</v>
       </c>
       <c r="N161" s="3"/>
@@ -36838,7 +36822,7 @@
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
       <c r="M162" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间3.9s造成伤害系数0.65</v>
       </c>
       <c r="N162" s="3"/>
@@ -36888,7 +36872,7 @@
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间4.2s造成伤害系数0.7</v>
       </c>
       <c r="N163" s="3"/>
@@ -36938,7 +36922,7 @@
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间4.5s造成伤害系数0.75</v>
       </c>
       <c r="N164" s="3"/>
@@ -36988,7 +36972,7 @@
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间4.8s造成伤害系数0.8</v>
       </c>
       <c r="N165" s="3"/>
@@ -37038,7 +37022,7 @@
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间5.1s造成伤害系数0.85</v>
       </c>
       <c r="N166" s="3"/>
@@ -37088,7 +37072,7 @@
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间5.4s造成伤害系数0.9</v>
       </c>
       <c r="N167" s="3"/>
@@ -37138,7 +37122,7 @@
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间5.7s造成伤害系数0.95</v>
       </c>
       <c r="N168" s="3"/>
@@ -37188,7 +37172,7 @@
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间6s造成伤害系数1</v>
       </c>
       <c r="N169" s="3"/>
@@ -37238,7 +37222,7 @@
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间6.3s造成伤害系数1.05</v>
       </c>
       <c r="N170" s="3"/>
@@ -37288,7 +37272,7 @@
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间6.6s造成伤害系数1.1</v>
       </c>
       <c r="N171" s="3"/>
@@ -37338,7 +37322,7 @@
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间6.9s造成伤害系数1.15</v>
       </c>
       <c r="N172" s="3"/>
@@ -37388,7 +37372,7 @@
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间7.2s造成伤害系数1.2</v>
       </c>
       <c r="N173" s="3"/>
@@ -37438,7 +37422,7 @@
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间7.5s造成伤害系数1.25</v>
       </c>
       <c r="N174" s="3"/>
@@ -37488,7 +37472,7 @@
       <c r="K175" s="13"/>
       <c r="L175" s="13"/>
       <c r="M175" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间7.8s造成伤害系数1.3</v>
       </c>
       <c r="N175" s="13"/>
@@ -37538,7 +37522,7 @@
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间8.1s造成伤害系数1.35</v>
       </c>
       <c r="N176" s="3"/>
@@ -37588,7 +37572,7 @@
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间8.4s造成伤害系数1.4</v>
       </c>
       <c r="N177" s="3"/>
@@ -37638,7 +37622,7 @@
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>持续时间8.7s造成伤害系数1.45</v>
       </c>
       <c r="N178" s="3"/>
@@ -37681,15 +37665,15 @@
         <v>100</v>
       </c>
       <c r="H179" s="4">
-        <v>1000</v>
+        <v>-5000</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3" t="str">
-        <f t="shared" ref="M179:M195" si="10">"伤害系数"&amp;1+H179/10000</f>
-        <v>伤害系数1.1</v>
+        <f t="shared" ref="M179:M195" si="9">"伤害系数"&amp;1+H179/10000</f>
+        <v>伤害系数0.5</v>
       </c>
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
@@ -37731,15 +37715,15 @@
         <v>110</v>
       </c>
       <c r="H180" s="4">
-        <v>1500</v>
+        <v>-4800</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.15</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.52</v>
       </c>
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
@@ -37779,15 +37763,15 @@
         <v>120</v>
       </c>
       <c r="H181" s="4">
-        <v>2000</v>
+        <v>-4600</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.2</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.54</v>
       </c>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
@@ -37827,15 +37811,15 @@
         <v>130</v>
       </c>
       <c r="H182" s="4">
-        <v>2500</v>
+        <v>-4400</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.25</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.56</v>
       </c>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
@@ -37875,15 +37859,15 @@
         <v>140</v>
       </c>
       <c r="H183" s="4">
-        <v>3000</v>
+        <v>-4200</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.3</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.58</v>
       </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
@@ -37923,15 +37907,15 @@
         <v>150</v>
       </c>
       <c r="H184" s="4">
-        <v>3500</v>
+        <v>-4000</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.35</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.6</v>
       </c>
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
@@ -37971,15 +37955,15 @@
         <v>160</v>
       </c>
       <c r="H185" s="4">
-        <v>4000</v>
+        <v>-3800</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.4</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.62</v>
       </c>
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
@@ -38019,15 +38003,15 @@
         <v>170</v>
       </c>
       <c r="H186" s="4">
-        <v>4500</v>
+        <v>-3600</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.45</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.64</v>
       </c>
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
@@ -38067,15 +38051,15 @@
         <v>180</v>
       </c>
       <c r="H187" s="4">
-        <v>5000</v>
+        <v>-3400</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.5</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.66</v>
       </c>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
@@ -38115,15 +38099,15 @@
         <v>190</v>
       </c>
       <c r="H188" s="4">
-        <v>5500</v>
+        <v>-3200</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.55</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.68</v>
       </c>
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
@@ -38163,15 +38147,15 @@
         <v>200</v>
       </c>
       <c r="H189" s="4">
-        <v>6000</v>
+        <v>-3000</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.6</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.7</v>
       </c>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
@@ -38211,15 +38195,15 @@
         <v>210</v>
       </c>
       <c r="H190" s="4">
-        <v>6500</v>
+        <v>-2800</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.65</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.72</v>
       </c>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
@@ -38259,15 +38243,15 @@
         <v>220</v>
       </c>
       <c r="H191" s="4">
-        <v>7000</v>
+        <v>-2600</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.7</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.74</v>
       </c>
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
@@ -38307,15 +38291,15 @@
         <v>230</v>
       </c>
       <c r="H192" s="4">
-        <v>7500</v>
+        <v>-2400</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.75</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.76</v>
       </c>
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
@@ -38355,15 +38339,15 @@
         <v>240</v>
       </c>
       <c r="H193" s="4">
-        <v>8000</v>
+        <v>-2200</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.8</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.78</v>
       </c>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
@@ -38403,15 +38387,15 @@
         <v>250</v>
       </c>
       <c r="H194" s="4">
-        <v>8500</v>
+        <v>-2000</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.85</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.8</v>
       </c>
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
@@ -38451,15 +38435,15 @@
         <v>260</v>
       </c>
       <c r="H195" s="4">
-        <v>9000</v>
+        <v>-1800</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>伤害系数1.9</v>
+        <f t="shared" si="9"/>
+        <v>伤害系数0.82</v>
       </c>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
@@ -38510,7 +38494,7 @@
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3" t="str">
-        <f t="shared" ref="M196:M229" si="11">"获得防御"&amp;I196&amp;"持续时间"&amp;H196/1000&amp;"s"</f>
+        <f t="shared" ref="M196:M229" si="10">"获得防御"&amp;I196&amp;"持续时间"&amp;H196/1000&amp;"s"</f>
         <v>获得防御100持续时间20s</v>
       </c>
       <c r="N196" s="3"/>
@@ -38562,7 +38546,7 @@
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御115持续时间22s</v>
       </c>
       <c r="N197" s="3"/>
@@ -38614,7 +38598,7 @@
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御130持续时间24s</v>
       </c>
       <c r="N198" s="3"/>
@@ -38664,7 +38648,7 @@
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御145持续时间26s</v>
       </c>
       <c r="N199" s="3"/>
@@ -38714,7 +38698,7 @@
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御160持续时间28s</v>
       </c>
       <c r="N200" s="3"/>
@@ -38764,7 +38748,7 @@
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御175持续时间30s</v>
       </c>
       <c r="N201" s="3"/>
@@ -38814,7 +38798,7 @@
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御190持续时间32s</v>
       </c>
       <c r="N202" s="3"/>
@@ -38864,7 +38848,7 @@
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
       <c r="M203" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御205持续时间34s</v>
       </c>
       <c r="N203" s="3"/>
@@ -38914,7 +38898,7 @@
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御220持续时间36s</v>
       </c>
       <c r="N204" s="3"/>
@@ -38964,7 +38948,7 @@
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御235持续时间38s</v>
       </c>
       <c r="N205" s="3"/>
@@ -39014,7 +38998,7 @@
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御250持续时间40s</v>
       </c>
       <c r="N206" s="3"/>
@@ -39064,7 +39048,7 @@
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御265持续时间42s</v>
       </c>
       <c r="N207" s="3"/>
@@ -39114,7 +39098,7 @@
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御280持续时间44s</v>
       </c>
       <c r="N208" s="3"/>
@@ -39164,7 +39148,7 @@
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御295持续时间46s</v>
       </c>
       <c r="N209" s="3"/>
@@ -39214,7 +39198,7 @@
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御310持续时间48s</v>
       </c>
       <c r="N210" s="3"/>
@@ -39264,7 +39248,7 @@
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御325持续时间50s</v>
       </c>
       <c r="N211" s="3"/>
@@ -39314,7 +39298,7 @@
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御340持续时间52s</v>
       </c>
       <c r="N212" s="3"/>
@@ -39364,7 +39348,7 @@
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御355持续时间54s</v>
       </c>
       <c r="N213" s="3"/>
@@ -39414,7 +39398,7 @@
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御370持续时间56s</v>
       </c>
       <c r="N214" s="3"/>
@@ -39464,7 +39448,7 @@
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御385持续时间58s</v>
       </c>
       <c r="N215" s="3"/>
@@ -39514,7 +39498,7 @@
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御400持续时间60s</v>
       </c>
       <c r="N216" s="3"/>
@@ -39564,7 +39548,7 @@
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
       <c r="M217" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御415持续时间62s</v>
       </c>
       <c r="N217" s="3"/>
@@ -39614,7 +39598,7 @@
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
       <c r="M218" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御430持续时间64s</v>
       </c>
       <c r="N218" s="3"/>
@@ -39664,7 +39648,7 @@
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御445持续时间66s</v>
       </c>
       <c r="N219" s="3"/>
@@ -39714,7 +39698,7 @@
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
       <c r="M220" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御460持续时间68s</v>
       </c>
       <c r="N220" s="3"/>
@@ -39764,7 +39748,7 @@
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御475持续时间70s</v>
       </c>
       <c r="N221" s="3"/>
@@ -39814,7 +39798,7 @@
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
       <c r="M222" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御490持续时间72s</v>
       </c>
       <c r="N222" s="3"/>
@@ -39864,7 +39848,7 @@
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御505持续时间74s</v>
       </c>
       <c r="N223" s="3"/>
@@ -39914,7 +39898,7 @@
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御520持续时间76s</v>
       </c>
       <c r="N224" s="3"/>
@@ -39964,7 +39948,7 @@
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御535持续时间78s</v>
       </c>
       <c r="N225" s="3"/>
@@ -40014,7 +39998,7 @@
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御550持续时间80s</v>
       </c>
       <c r="N226" s="3"/>
@@ -40064,7 +40048,7 @@
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御565持续时间82s</v>
       </c>
       <c r="N227" s="3"/>
@@ -40114,7 +40098,7 @@
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御580持续时间84s</v>
       </c>
       <c r="N228" s="3"/>
@@ -40164,7 +40148,7 @@
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>获得防御595持续时间86s</v>
       </c>
       <c r="N229" s="3"/>
@@ -40216,7 +40200,7 @@
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
       <c r="M230" s="3" t="str">
-        <f t="shared" ref="M230:M256" si="12">"伤害倍数"&amp;1+H230/10000&amp;"控制目标"&amp;I230/1000&amp;"秒"</f>
+        <f t="shared" ref="M230:M256" si="11">"伤害倍数"&amp;1+H230/10000&amp;"控制目标"&amp;I230/1000&amp;"秒"</f>
         <v>伤害倍数0.5控制目标1秒</v>
       </c>
       <c r="N230" s="3"/>
@@ -40268,7 +40252,7 @@
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.53控制目标1.1秒</v>
       </c>
       <c r="N231" s="3"/>
@@ -40320,7 +40304,7 @@
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.56控制目标1.2秒</v>
       </c>
       <c r="N232" s="3"/>
@@ -40370,7 +40354,7 @@
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.59控制目标1.3秒</v>
       </c>
       <c r="N233" s="3"/>
@@ -40420,7 +40404,7 @@
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.62控制目标1.4秒</v>
       </c>
       <c r="N234" s="3"/>
@@ -40470,7 +40454,7 @@
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
       <c r="M235" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.65控制目标1.5秒</v>
       </c>
       <c r="N235" s="3"/>
@@ -40520,7 +40504,7 @@
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
       <c r="M236" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.68控制目标1.6秒</v>
       </c>
       <c r="N236" s="3"/>
@@ -40570,7 +40554,7 @@
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
       <c r="M237" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.71控制目标1.7秒</v>
       </c>
       <c r="N237" s="3"/>
@@ -40620,7 +40604,7 @@
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.74控制目标1.8秒</v>
       </c>
       <c r="N238" s="3"/>
@@ -40670,7 +40654,7 @@
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.77控制目标1.9秒</v>
       </c>
       <c r="N239" s="3"/>
@@ -40720,7 +40704,7 @@
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.8控制目标2秒</v>
       </c>
       <c r="N240" s="3"/>
@@ -40770,7 +40754,7 @@
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
       <c r="M241" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.83控制目标2.1秒</v>
       </c>
       <c r="N241" s="3"/>
@@ -40820,7 +40804,7 @@
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
       <c r="M242" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.86控制目标2.2秒</v>
       </c>
       <c r="N242" s="3"/>
@@ -40870,7 +40854,7 @@
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
       <c r="M243" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.89控制目标2.3秒</v>
       </c>
       <c r="N243" s="3"/>
@@ -40920,7 +40904,7 @@
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
       <c r="M244" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.92控制目标2.4秒</v>
       </c>
       <c r="N244" s="3"/>
@@ -40970,7 +40954,7 @@
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
       <c r="M245" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.95控制目标2.5秒</v>
       </c>
       <c r="N245" s="3"/>
@@ -41020,7 +41004,7 @@
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
       <c r="M246" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数0.98控制目标2.6秒</v>
       </c>
       <c r="N246" s="3"/>
@@ -41070,7 +41054,7 @@
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
       <c r="M247" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.01控制目标2.7秒</v>
       </c>
       <c r="N247" s="3"/>
@@ -41120,7 +41104,7 @@
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
       <c r="M248" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.04控制目标2.8秒</v>
       </c>
       <c r="N248" s="3"/>
@@ -41170,7 +41154,7 @@
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
       <c r="M249" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.07控制目标2.9秒</v>
       </c>
       <c r="N249" s="3"/>
@@ -41220,7 +41204,7 @@
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
       <c r="M250" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.1控制目标3秒</v>
       </c>
       <c r="N250" s="3"/>
@@ -41270,7 +41254,7 @@
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
       <c r="M251" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.13控制目标3.1秒</v>
       </c>
       <c r="N251" s="3"/>
@@ -41320,7 +41304,7 @@
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
       <c r="M252" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.16控制目标3.2秒</v>
       </c>
       <c r="N252" s="3"/>
@@ -41370,7 +41354,7 @@
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
       <c r="M253" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.19控制目标3.3秒</v>
       </c>
       <c r="N253" s="3"/>
@@ -41420,7 +41404,7 @@
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
       <c r="M254" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.22控制目标3.4秒</v>
       </c>
       <c r="N254" s="3"/>
@@ -41470,7 +41454,7 @@
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
       <c r="M255" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.25控制目标3.5秒</v>
       </c>
       <c r="N255" s="3"/>
@@ -41520,7 +41504,7 @@
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
       <c r="M256" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>伤害倍数1.28控制目标3.6秒</v>
       </c>
       <c r="N256" s="3"/>
@@ -41570,7 +41554,7 @@
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
       <c r="M257" s="3" t="str">
-        <f t="shared" ref="M257:M347" si="13">"伤害倍数"&amp;1+H257/10000</f>
+        <f t="shared" ref="M257:M347" si="12">"伤害倍数"&amp;1+H257/10000</f>
         <v>伤害倍数1.2</v>
       </c>
       <c r="N257" s="3"/>
@@ -41620,7 +41604,7 @@
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
       <c r="M258" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.25</v>
       </c>
       <c r="N258" s="3"/>
@@ -41668,7 +41652,7 @@
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
       <c r="M259" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.3</v>
       </c>
       <c r="N259" s="3"/>
@@ -41716,7 +41700,7 @@
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
       <c r="M260" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.35</v>
       </c>
       <c r="N260" s="3"/>
@@ -41764,7 +41748,7 @@
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
       <c r="M261" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.4</v>
       </c>
       <c r="N261" s="3"/>
@@ -41812,7 +41796,7 @@
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
       <c r="M262" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.45</v>
       </c>
       <c r="N262" s="3"/>
@@ -41860,7 +41844,7 @@
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
       <c r="M263" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.5</v>
       </c>
       <c r="N263" s="3"/>
@@ -41908,7 +41892,7 @@
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
       <c r="M264" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.55</v>
       </c>
       <c r="N264" s="3"/>
@@ -41956,7 +41940,7 @@
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
       <c r="M265" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.6</v>
       </c>
       <c r="N265" s="3"/>
@@ -42004,7 +41988,7 @@
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
       <c r="M266" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.65</v>
       </c>
       <c r="N266" s="3"/>
@@ -42052,7 +42036,7 @@
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
       <c r="M267" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.7</v>
       </c>
       <c r="N267" s="3"/>
@@ -42100,7 +42084,7 @@
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
       <c r="M268" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.75</v>
       </c>
       <c r="N268" s="3"/>
@@ -42148,7 +42132,7 @@
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
       <c r="M269" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.8</v>
       </c>
       <c r="N269" s="3"/>
@@ -42196,7 +42180,7 @@
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
       <c r="M270" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.85</v>
       </c>
       <c r="N270" s="3"/>
@@ -42244,7 +42228,7 @@
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
       <c r="M271" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.9</v>
       </c>
       <c r="N271" s="3"/>
@@ -42292,7 +42276,7 @@
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
       <c r="M272" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.95</v>
       </c>
       <c r="N272" s="3"/>
@@ -42342,7 +42326,7 @@
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
       <c r="M273" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1</v>
       </c>
       <c r="N273" s="3"/>
@@ -42390,7 +42374,7 @@
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
       <c r="M274" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.015</v>
       </c>
       <c r="N274" s="3"/>
@@ -42438,7 +42422,7 @@
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
       <c r="M275" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.03</v>
       </c>
       <c r="N275" s="3"/>
@@ -42486,7 +42470,7 @@
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
       <c r="M276" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.045</v>
       </c>
       <c r="N276" s="3"/>
@@ -42534,7 +42518,7 @@
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
       <c r="M277" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.06</v>
       </c>
       <c r="N277" s="3"/>
@@ -42582,7 +42566,7 @@
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
       <c r="M278" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.075</v>
       </c>
       <c r="N278" s="3"/>
@@ -42630,7 +42614,7 @@
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
       <c r="M279" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.09</v>
       </c>
       <c r="N279" s="3"/>
@@ -42678,7 +42662,7 @@
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
       <c r="M280" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.105</v>
       </c>
       <c r="N280" s="3"/>
@@ -42726,7 +42710,7 @@
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
       <c r="M281" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.12</v>
       </c>
       <c r="N281" s="3"/>
@@ -42774,7 +42758,7 @@
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
       <c r="M282" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.135</v>
       </c>
       <c r="N282" s="3"/>
@@ -42822,7 +42806,7 @@
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
       <c r="M283" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.15</v>
       </c>
       <c r="N283" s="3"/>
@@ -42870,7 +42854,7 @@
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
       <c r="M284" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.165</v>
       </c>
       <c r="N284" s="3"/>
@@ -42918,7 +42902,7 @@
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
       <c r="M285" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.18</v>
       </c>
       <c r="N285" s="3"/>
@@ -42966,7 +42950,7 @@
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
       <c r="M286" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.195</v>
       </c>
       <c r="N286" s="3"/>
@@ -43014,7 +42998,7 @@
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
       <c r="M287" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.21</v>
       </c>
       <c r="N287" s="3"/>
@@ -43062,7 +43046,7 @@
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
       <c r="M288" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.225</v>
       </c>
       <c r="N288" s="3"/>
@@ -43110,7 +43094,7 @@
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
       <c r="M289" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.24</v>
       </c>
       <c r="N289" s="3"/>
@@ -43158,7 +43142,7 @@
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
       <c r="M290" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.255</v>
       </c>
       <c r="N290" s="3"/>
@@ -43206,7 +43190,7 @@
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
       <c r="M291" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.27</v>
       </c>
       <c r="N291" s="3"/>
@@ -43254,7 +43238,7 @@
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
       <c r="M292" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.285</v>
       </c>
       <c r="N292" s="3"/>
@@ -43302,7 +43286,7 @@
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
       <c r="M293" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.3</v>
       </c>
       <c r="N293" s="3"/>
@@ -43350,7 +43334,7 @@
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
       <c r="M294" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.315</v>
       </c>
       <c r="N294" s="3"/>
@@ -43398,7 +43382,7 @@
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
       <c r="M295" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.33</v>
       </c>
       <c r="N295" s="3"/>
@@ -43446,7 +43430,7 @@
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
       <c r="M296" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.345</v>
       </c>
       <c r="N296" s="3"/>
@@ -43494,7 +43478,7 @@
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
       <c r="M297" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.36</v>
       </c>
       <c r="N297" s="3"/>
@@ -43544,7 +43528,7 @@
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
       <c r="M298" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1</v>
       </c>
       <c r="N298" s="3"/>
@@ -43592,7 +43576,7 @@
       <c r="K299" s="3"/>
       <c r="L299" s="3"/>
       <c r="M299" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.01</v>
       </c>
       <c r="N299" s="3"/>
@@ -43640,7 +43624,7 @@
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
       <c r="M300" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.02</v>
       </c>
       <c r="N300" s="3"/>
@@ -43688,7 +43672,7 @@
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
       <c r="M301" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.03</v>
       </c>
       <c r="N301" s="3"/>
@@ -43736,7 +43720,7 @@
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
       <c r="M302" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.04</v>
       </c>
       <c r="N302" s="3"/>
@@ -43784,7 +43768,7 @@
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
       <c r="M303" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.05</v>
       </c>
       <c r="N303" s="3"/>
@@ -43832,7 +43816,7 @@
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
       <c r="M304" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.06</v>
       </c>
       <c r="N304" s="3"/>
@@ -43880,7 +43864,7 @@
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
       <c r="M305" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.07</v>
       </c>
       <c r="N305" s="3"/>
@@ -43928,7 +43912,7 @@
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
       <c r="M306" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.08</v>
       </c>
       <c r="N306" s="3"/>
@@ -43976,7 +43960,7 @@
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
       <c r="M307" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.09</v>
       </c>
       <c r="N307" s="3"/>
@@ -44024,7 +44008,7 @@
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
       <c r="M308" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.1</v>
       </c>
       <c r="N308" s="3"/>
@@ -44072,7 +44056,7 @@
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
       <c r="M309" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.11</v>
       </c>
       <c r="N309" s="3"/>
@@ -44120,7 +44104,7 @@
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
       <c r="M310" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.12</v>
       </c>
       <c r="N310" s="3"/>
@@ -44168,7 +44152,7 @@
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
       <c r="M311" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.13</v>
       </c>
       <c r="N311" s="3"/>
@@ -44216,7 +44200,7 @@
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
       <c r="M312" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.14</v>
       </c>
       <c r="N312" s="3"/>
@@ -44264,7 +44248,7 @@
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
       <c r="M313" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.15</v>
       </c>
       <c r="N313" s="3"/>
@@ -44312,7 +44296,7 @@
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
       <c r="M314" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.16</v>
       </c>
       <c r="N314" s="3"/>
@@ -44360,7 +44344,7 @@
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
       <c r="M315" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.17</v>
       </c>
       <c r="N315" s="3"/>
@@ -44408,7 +44392,7 @@
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
       <c r="M316" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.18</v>
       </c>
       <c r="N316" s="3"/>
@@ -44456,7 +44440,7 @@
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
       <c r="M317" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.19</v>
       </c>
       <c r="N317" s="3"/>
@@ -44504,7 +44488,7 @@
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
       <c r="M318" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.2</v>
       </c>
       <c r="N318" s="3"/>
@@ -44552,7 +44536,7 @@
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
       <c r="M319" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.21</v>
       </c>
       <c r="N319" s="3"/>
@@ -44600,7 +44584,7 @@
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
       <c r="M320" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.22</v>
       </c>
       <c r="N320" s="3"/>
@@ -44648,7 +44632,7 @@
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
       <c r="M321" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.23</v>
       </c>
       <c r="N321" s="3"/>
@@ -44696,7 +44680,7 @@
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
       <c r="M322" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.24</v>
       </c>
       <c r="N322" s="3"/>
@@ -44746,7 +44730,7 @@
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
       <c r="M323" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数0.8</v>
       </c>
       <c r="N323" s="3"/>
@@ -44794,7 +44778,7 @@
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
       <c r="M324" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数0.85</v>
       </c>
       <c r="N324" s="3"/>
@@ -44842,7 +44826,7 @@
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
       <c r="M325" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数0.9</v>
       </c>
       <c r="N325" s="3"/>
@@ -44890,7 +44874,7 @@
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
       <c r="M326" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数0.95</v>
       </c>
       <c r="N326" s="3"/>
@@ -44938,7 +44922,7 @@
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
       <c r="M327" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1</v>
       </c>
       <c r="N327" s="3"/>
@@ -44986,7 +44970,7 @@
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
       <c r="M328" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.05</v>
       </c>
       <c r="N328" s="3"/>
@@ -45034,7 +45018,7 @@
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
       <c r="M329" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.1</v>
       </c>
       <c r="N329" s="3"/>
@@ -45082,7 +45066,7 @@
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
       <c r="M330" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.15</v>
       </c>
       <c r="N330" s="3"/>
@@ -45130,7 +45114,7 @@
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
       <c r="M331" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.2</v>
       </c>
       <c r="N331" s="3"/>
@@ -45178,7 +45162,7 @@
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
       <c r="M332" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.25</v>
       </c>
       <c r="N332" s="3"/>
@@ -45226,7 +45210,7 @@
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
       <c r="M333" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.3</v>
       </c>
       <c r="N333" s="3"/>
@@ -45274,7 +45258,7 @@
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
       <c r="M334" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.35</v>
       </c>
       <c r="N334" s="3"/>
@@ -45322,7 +45306,7 @@
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
       <c r="M335" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.4</v>
       </c>
       <c r="N335" s="3"/>
@@ -45370,7 +45354,7 @@
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
       <c r="M336" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.45</v>
       </c>
       <c r="N336" s="3"/>
@@ -45418,7 +45402,7 @@
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
       <c r="M337" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.5</v>
       </c>
       <c r="N337" s="3"/>
@@ -45466,7 +45450,7 @@
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
       <c r="M338" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.55</v>
       </c>
       <c r="N338" s="3"/>
@@ -45514,7 +45498,7 @@
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
       <c r="M339" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.6</v>
       </c>
       <c r="N339" s="3"/>
@@ -45562,7 +45546,7 @@
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
       <c r="M340" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.65</v>
       </c>
       <c r="N340" s="3"/>
@@ -45610,7 +45594,7 @@
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
       <c r="M341" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.7</v>
       </c>
       <c r="N341" s="3"/>
@@ -45658,7 +45642,7 @@
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
       <c r="M342" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.75</v>
       </c>
       <c r="N342" s="3"/>
@@ -45706,7 +45690,7 @@
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
       <c r="M343" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.8</v>
       </c>
       <c r="N343" s="3"/>
@@ -45754,7 +45738,7 @@
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
       <c r="M344" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.85</v>
       </c>
       <c r="N344" s="3"/>
@@ -45802,7 +45786,7 @@
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
       <c r="M345" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.9</v>
       </c>
       <c r="N345" s="3"/>
@@ -45850,7 +45834,7 @@
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
       <c r="M346" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数1.95</v>
       </c>
       <c r="N346" s="3"/>
@@ -45898,7 +45882,7 @@
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
       <c r="M347" s="3" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>伤害倍数2</v>
       </c>
       <c r="N347" s="3"/>
